--- a/System Implementation Doc.xlsx
+++ b/System Implementation Doc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA18839C-F46A-4AF8-8810-0829AAB70F24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8900EB1D-896D-4FA1-88EA-EC16765F3947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12198" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Task 3</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Milestone</t>
   </si>
   <si>
     <t>Assigned To</t>
@@ -191,18 +185,6 @@
     <t>Phil Snider</t>
   </si>
   <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
     <t>Product Backlog</t>
   </si>
   <si>
@@ -222,6 +204,18 @@
   </si>
   <si>
     <t>Draft Context Diagrams</t>
+  </si>
+  <si>
+    <t>Sprint 1 - Documentation</t>
+  </si>
+  <si>
+    <t>Sprint 2 - Design and Implementation</t>
+  </si>
+  <si>
+    <t>Sprint 3 - Implementation &amp; Testing</t>
+  </si>
+  <si>
+    <t>Sprint 4 - Testing &amp; Maintenance</t>
   </si>
 </sst>
 </file>
@@ -758,6 +752,7 @@
     <xf numFmtId="164" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -770,7 +765,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,11 +780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,6 +798,15 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="34">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1196,15 +1199,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1525,9 +1519,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -1809,8 +1803,8 @@
   </sheetPr>
   <dimension ref="A1:BL38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1829,17 +1823,17 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A1" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="G1" s="7"/>
       <c r="I1" s="40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="20"/>
@@ -1868,77 +1862,77 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="N2" s="59" t="s">
+      <c r="I2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="N2" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
       <c r="R2" s="20"/>
-      <c r="S2" s="60" t="s">
+      <c r="S2" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
+      <c r="AC2" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="63">
+      <c r="D3" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="59">
         <v>43472</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="55"/>
+        <v>25</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="56"/>
       <c r="F4" s="45">
         <v>0</v>
       </c>
@@ -2025,17 +2019,17 @@
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+        <v>26</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
       <c r="I5" s="49">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>43472</v>
@@ -2263,7 +2257,7 @@
     </row>
     <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -2331,22 +2325,22 @@
     </row>
     <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>13</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>15</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>9</v>
@@ -2579,7 +2573,7 @@
     </row>
     <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="30"/>
@@ -2646,10 +2640,10 @@
     </row>
     <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -2885,23 +2879,19 @@
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15"/>
       <c r="B10" s="41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="31">
-        <v>0.25</v>
-      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="32">
         <v>43479</v>
       </c>
-      <c r="G10" s="33">
-        <v>3</v>
-      </c>
+      <c r="G10" s="33"/>
       <c r="H10" s="26"/>
       <c r="I10" s="38" t="str">
         <f ca="1">IF(AND($C10="Goal",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),1,""))</f>
@@ -3131,19 +3121,17 @@
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15"/>
       <c r="B11" s="41" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="31"/>
       <c r="F11" s="32">
         <v>43479</v>
       </c>
-      <c r="G11" s="33">
-        <v>1</v>
-      </c>
+      <c r="G11" s="33"/>
       <c r="H11" s="26"/>
       <c r="I11" s="38" t="str">
         <f t="shared" ref="I11:I13" ca="1" si="10">IF(AND($C11="Goal",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
@@ -3373,21 +3361,17 @@
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="34"/>
-      <c r="E12" s="31">
-        <v>0.5</v>
-      </c>
+      <c r="E12" s="31"/>
       <c r="F12" s="32">
         <v>43479</v>
       </c>
-      <c r="G12" s="33">
-        <v>10</v>
-      </c>
+      <c r="G12" s="33"/>
       <c r="H12" s="26"/>
       <c r="I12" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3617,19 +3601,17 @@
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="31"/>
       <c r="F13" s="32">
         <v>43479</v>
       </c>
-      <c r="G13" s="33">
-        <v>1</v>
-      </c>
+      <c r="G13" s="33"/>
       <c r="H13" s="26"/>
       <c r="I13" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3859,254 +3841,250 @@
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="34"/>
-      <c r="E14" s="31">
-        <v>0.1</v>
-      </c>
+      <c r="E14" s="31"/>
       <c r="F14" s="32">
         <v>43479</v>
       </c>
-      <c r="G14" s="33">
-        <v>6</v>
-      </c>
+      <c r="G14" s="33"/>
       <c r="H14" s="26"/>
       <c r="I14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ref="I14:AN14" ca="1" si="11">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="J14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",J$5&gt;=$F14,J$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",J$5&gt;=$F14,J$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="K14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",K$5&gt;=$F14,K$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",K$5&gt;=$F14,K$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="L14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",L$5&gt;=$F14,L$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",L$5&gt;=$F14,L$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="M14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",M$5&gt;=$F14,M$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",M$5&gt;=$F14,M$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="N14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",N$5&gt;=$F14,N$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",N$5&gt;=$F14,N$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="O14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",O$5&gt;=$F14,O$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",O$5&gt;=$F14,O$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="P14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",P$5&gt;=$F14,P$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",P$5&gt;=$F14,P$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",Q$5&gt;=$F14,Q$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",Q$5&gt;=$F14,Q$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",R$5&gt;=$F14,R$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",R$5&gt;=$F14,R$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="S14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",S$5&gt;=$F14,S$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",S$5&gt;=$F14,S$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="T14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",T$5&gt;=$F14,T$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",T$5&gt;=$F14,T$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="U14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",U$5&gt;=$F14,U$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",U$5&gt;=$F14,U$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="V14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",V$5&gt;=$F14,V$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",V$5&gt;=$F14,V$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="W14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",W$5&gt;=$F14,W$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",W$5&gt;=$F14,W$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="X14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",X$5&gt;=$F14,X$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",X$5&gt;=$F14,X$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Y14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",Y$5&gt;=$F14,Y$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",Y$5&gt;=$F14,Y$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Z14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",Z$5&gt;=$F14,Z$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",Z$5&gt;=$F14,Z$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AA14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AA$5&gt;=$F14,AA$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AA$5&gt;=$F14,AA$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AB14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AB$5&gt;=$F14,AB$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AB$5&gt;=$F14,AB$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AC14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AC$5&gt;=$F14,AC$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AC$5&gt;=$F14,AC$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AD14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AD$5&gt;=$F14,AD$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AD$5&gt;=$F14,AD$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AE14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AE$5&gt;=$F14,AE$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AE$5&gt;=$F14,AE$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AF14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AF$5&gt;=$F14,AF$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AF$5&gt;=$F14,AF$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AG14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AG$5&gt;=$F14,AG$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AG$5&gt;=$F14,AG$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AH14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AH$5&gt;=$F14,AH$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AH$5&gt;=$F14,AH$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AI14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AI$5&gt;=$F14,AI$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AI$5&gt;=$F14,AI$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AJ14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AJ$5&gt;=$F14,AJ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AJ$5&gt;=$F14,AJ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AK14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AK$5&gt;=$F14,AK$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AK$5&gt;=$F14,AK$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AL14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AL$5&gt;=$F14,AL$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AL$5&gt;=$F14,AL$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AM14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AM$5&gt;=$F14,AM$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AM$5&gt;=$F14,AM$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AN14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AN$5&gt;=$F14,AN$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AN$5&gt;=$F14,AN$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="AO14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AO$5&gt;=$F14,AO$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AO$5&gt;=$F14,AO$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ref="AO14:BL14" ca="1" si="12">IF(AND($C14="Goal",AO$5&gt;=$F14,AO$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AO$5&gt;=$F14,AO$5&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="AP14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AP$5&gt;=$F14,AP$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AP$5&gt;=$F14,AP$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AQ14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AQ$5&gt;=$F14,AQ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AQ$5&gt;=$F14,AQ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AR14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AR$5&gt;=$F14,AR$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AR$5&gt;=$F14,AR$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AS14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AS$5&gt;=$F14,AS$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AS$5&gt;=$F14,AS$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AT14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AT$5&gt;=$F14,AT$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AT$5&gt;=$F14,AT$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AU14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AU$5&gt;=$F14,AU$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AU$5&gt;=$F14,AU$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AV14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AV$5&gt;=$F14,AV$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AV$5&gt;=$F14,AV$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AW14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AW$5&gt;=$F14,AW$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AW$5&gt;=$F14,AW$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AX14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AX$5&gt;=$F14,AX$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AX$5&gt;=$F14,AX$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AY14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AY$5&gt;=$F14,AY$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AY$5&gt;=$F14,AY$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="AZ14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",AZ$5&gt;=$F14,AZ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",AZ$5&gt;=$F14,AZ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BA14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BA$5&gt;=$F14,BA$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BA$5&gt;=$F14,BA$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BB14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BB$5&gt;=$F14,BB$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BB$5&gt;=$F14,BB$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BC14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BC$5&gt;=$F14,BC$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BC$5&gt;=$F14,BC$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BD14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BD$5&gt;=$F14,BD$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BD$5&gt;=$F14,BD$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BE14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BE$5&gt;=$F14,BE$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BE$5&gt;=$F14,BE$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BF14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BF$5&gt;=$F14,BF$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BF$5&gt;=$F14,BF$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BG14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BG$5&gt;=$F14,BG$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BG$5&gt;=$F14,BG$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BH14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BH$5&gt;=$F14,BH$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BH$5&gt;=$F14,BH$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BI14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BI$5&gt;=$F14,BI$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BI$5&gt;=$F14,BI$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BJ14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BJ$5&gt;=$F14,BJ$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BJ$5&gt;=$F14,BJ$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BK14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BK$5&gt;=$F14,BK$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BK$5&gt;=$F14,BK$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="BL14" s="38" t="str">
-        <f ca="1">IF(AND($C14="Goal",BL$5&gt;=$F14,BL$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",BL$5&gt;=$F14,BL$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="31"/>
@@ -4116,237 +4094,237 @@
       <c r="G15" s="33"/>
       <c r="H15" s="26"/>
       <c r="I15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="I15:AN15" ca="1" si="13">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="J15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="N15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="O15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="P15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",P$5&gt;=$F17,P$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",P$5&gt;=$F17,P$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Q15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",Q$5&gt;=$F17,Q$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Q$5&gt;=$F17,Q$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="R15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="S15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",S$5&gt;=$F17,S$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",S$5&gt;=$F17,S$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="T15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",T$5&gt;=$F17,T$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",T$5&gt;=$F17,T$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",U$5&gt;=$F17,U$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",U$5&gt;=$F17,U$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="V15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",V$5&gt;=$F17,V$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",V$5&gt;=$F17,V$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="W15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",W$5&gt;=$F17,W$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",W$5&gt;=$F17,W$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="X15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Y15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="Z15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AA15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AB15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AC15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AD15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AE15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AF15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AG15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AH15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AI15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AJ15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AK15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AL15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AM15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AN15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="AO15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="AO15:BL15" ca="1" si="14">IF(AND($C17="Goal",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AP15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AX15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AY15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AZ15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BA15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BB15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BC15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BD15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BE15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BF15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BG15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15"/>
       <c r="B16" s="41" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="31"/>
@@ -4356,234 +4334,234 @@
       <c r="G16" s="33"/>
       <c r="H16" s="26"/>
       <c r="I16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ref="I16:AN16" ca="1" si="15">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="J16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="K16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="L16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="M16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="N16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="O16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="P16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Q16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="R16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="S16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",S$5&gt;=$F18,S$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",S$5&gt;=$F18,S$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="T16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",T$5&gt;=$F18,T$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",T$5&gt;=$F18,T$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="U16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",U$5&gt;=$F18,U$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",U$5&gt;=$F18,U$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="V16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",V$5&gt;=$F18,V$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",V$5&gt;=$F18,V$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="W16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",W$5&gt;=$F18,W$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",W$5&gt;=$F18,W$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="X16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Y16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="Z16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AA16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AB16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AC16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AD16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AE16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AF16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AG16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AH16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AI16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AJ16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AK16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AL16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AM16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AN16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="AO16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ref="AO16:BL16" ca="1" si="16">IF(AND($C18="Goal",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AP16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="42" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -4592,227 +4570,227 @@
       <c r="G17" s="33"/>
       <c r="H17" s="26"/>
       <c r="I17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="I17:AN17" ca="1" si="17">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="J17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="L17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="M17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="N17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="O17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="P17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Q17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="R17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="S17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="T17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="U17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="V17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="W17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="X17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Y17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AC17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AD17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AE17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AF17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AG17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AH17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AI17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AJ17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AK17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AL17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AM17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AN17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AO17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="AO17:BL17" ca="1" si="18">IF(AND($C19="Goal",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AP17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AQ17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AR17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AS17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AT17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AU17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AV17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AW17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AX17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AY17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AZ17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BA17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BB17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BC17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BD17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BE17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BF17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BG17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BH17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BI17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BJ17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BK17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="BL17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
@@ -4821,240 +4799,234 @@
       <c r="B18" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>19</v>
-      </c>
+      <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="31">
-        <v>0.6</v>
-      </c>
+      <c r="E18" s="31"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="33">
-        <v>13</v>
-      </c>
+      <c r="G18" s="33"/>
       <c r="H18" s="26"/>
       <c r="I18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="I18:AN18" ca="1" si="19">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="J18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",J$5&gt;=$F20,J$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="K18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",K$5&gt;=$F20,K$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="L18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",L$5&gt;=$F20,L$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="M18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",M$5&gt;=$F20,M$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="N18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",N$5&gt;=$F20,N$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="O18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",O$5&gt;=$F20,O$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="P18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",P$5&gt;=$F20,P$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Q18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Q$5&gt;=$F20,Q$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="R18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",R$5&gt;=$F20,R$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="S18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",S$5&gt;=$F20,S$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="T18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",T$5&gt;=$F20,T$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="U18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",U$5&gt;=$F20,U$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="V18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",V$5&gt;=$F20,V$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="W18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",W$5&gt;=$F20,W$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="X18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",X$5&gt;=$F20,X$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Y18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Y$5&gt;=$F20,Y$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="Z18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",Z$5&gt;=$F20,Z$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AA18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AA$5&gt;=$F20,AA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AB18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AB$5&gt;=$F20,AB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AC18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AC$5&gt;=$F20,AC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AD18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AD$5&gt;=$F20,AD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AE18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AE$5&gt;=$F20,AE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AF18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AF$5&gt;=$F20,AF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AG18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AG$5&gt;=$F20,AG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AH18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AH$5&gt;=$F20,AH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AI18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AI$5&gt;=$F20,AI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AJ18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AJ$5&gt;=$F20,AJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AK18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AK$5&gt;=$F20,AK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AL18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AL$5&gt;=$F20,AL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AM18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AM$5&gt;=$F20,AM$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AN18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AN$5&gt;=$F20,AN$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AO18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ref="AO18:BL18" ca="1" si="20">IF(AND($C20="Goal",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),1,""))</f>
         <v/>
       </c>
       <c r="AP18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AP$5&gt;=$F20,AP$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AQ18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AQ$5&gt;=$F20,AQ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AR18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AR$5&gt;=$F20,AR$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AS18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AS$5&gt;=$F20,AS$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AT18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AT$5&gt;=$F20,AT$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AU18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AU$5&gt;=$F20,AU$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AV18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AV$5&gt;=$F20,AV$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AW18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AW$5&gt;=$F20,AW$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AX18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AX$5&gt;=$F20,AX$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AY18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AY$5&gt;=$F20,AY$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AZ18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AZ$5&gt;=$F20,AZ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BA18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BA$5&gt;=$F20,BA$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BB18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BB$5&gt;=$F20,BB$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BC18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BC$5&gt;=$F20,BC$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BD18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BD$5&gt;=$F20,BD$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BE18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BE$5&gt;=$F20,BE$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BF18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BF$5&gt;=$F20,BF$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BG18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BG$5&gt;=$F20,BG$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BH18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BH$5&gt;=$F20,BH$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BI18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BI$5&gt;=$F20,BI$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BJ18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BJ$5&gt;=$F20,BJ$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BK18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BK$5&gt;=$F20,BK$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="BL18" s="38" t="str">
-        <f ca="1">IF(AND($C20="Goal",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",BL$5&gt;=$F20,BL$5&lt;=$F20+$G20-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
     </row>
@@ -5063,240 +5035,234 @@
       <c r="B19" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="34" t="s">
-        <v>20</v>
-      </c>
+      <c r="C19" s="34"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="31">
-        <v>0.5</v>
-      </c>
+      <c r="E19" s="31"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="33">
-        <v>9</v>
-      </c>
+      <c r="G19" s="33"/>
       <c r="H19" s="26"/>
       <c r="I19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ref="I19:AN19" ca="1" si="21">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="J19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",J$5&gt;=$F21,J$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",K$5&gt;=$F21,K$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="L19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",L$5&gt;=$F21,L$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="M19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",M$5&gt;=$F21,M$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="N19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",N$5&gt;=$F21,N$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="O19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",O$5&gt;=$F21,O$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="P19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",P$5&gt;=$F21,P$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Q19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Q$5&gt;=$F21,Q$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="R19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",R$5&gt;=$F21,R$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="S19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",S$5&gt;=$F21,S$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="T19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",T$5&gt;=$F21,T$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="U19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",U$5&gt;=$F21,U$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="V19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",V$5&gt;=$F21,V$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="W19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",W$5&gt;=$F21,W$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="X19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",X$5&gt;=$F21,X$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Y19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Y$5&gt;=$F21,Y$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="Z19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",Z$5&gt;=$F21,Z$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AA19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AA$5&gt;=$F21,AA$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AB19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AB$5&gt;=$F21,AB$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AC19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AC$5&gt;=$F21,AC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AD19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AD$5&gt;=$F21,AD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AE19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AE$5&gt;=$F21,AE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AF19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AF$5&gt;=$F21,AF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AG19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AG$5&gt;=$F21,AG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AH19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AH$5&gt;=$F21,AH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AI19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AI$5&gt;=$F21,AI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AJ19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AJ$5&gt;=$F21,AJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AK19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AK$5&gt;=$F21,AK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AL19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AL$5&gt;=$F21,AL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AM19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AM$5&gt;=$F21,AM$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AN19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AN$5&gt;=$F21,AN$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AO19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ref="AO19:BL19" ca="1" si="22">IF(AND($C21="Goal",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),1,""))</f>
         <v/>
       </c>
       <c r="AP19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AP$5&gt;=$F21,AP$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AQ19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AQ$5&gt;=$F21,AQ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AR19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AR$5&gt;=$F21,AR$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AS19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AS$5&gt;=$F21,AS$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AT19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AT$5&gt;=$F21,AT$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AU19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AU$5&gt;=$F21,AU$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AV19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AV$5&gt;=$F21,AV$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AW19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AW$5&gt;=$F21,AW$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AX19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AX$5&gt;=$F21,AX$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AY19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AY$5&gt;=$F21,AY$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AZ19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AZ$5&gt;=$F21,AZ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BA19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BA$5&gt;=$F21,BA$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BB19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BB$5&gt;=$F21,BB$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BC19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BC$5&gt;=$F21,BC$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BD19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BD$5&gt;=$F21,BD$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BE19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BE$5&gt;=$F21,BE$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BF19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BF$5&gt;=$F21,BF$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BG19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BG$5&gt;=$F21,BG$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BH19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BH$5&gt;=$F21,BH$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BI19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BI$5&gt;=$F21,BI$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BJ19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BJ$5&gt;=$F21,BJ$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BK19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BK$5&gt;=$F21,BK$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="BL19" s="38" t="str">
-        <f ca="1">IF(AND($C21="Goal",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",BL$5&gt;=$F21,BL$5&lt;=$F21+$G21-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
     </row>
@@ -5305,240 +5271,234 @@
       <c r="B20" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>18</v>
-      </c>
+      <c r="C20" s="34"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="31">
-        <v>0.33</v>
-      </c>
+      <c r="E20" s="31"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="33">
-        <v>11</v>
-      </c>
+      <c r="G20" s="33"/>
       <c r="H20" s="26"/>
       <c r="I20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="I20:AN20" ca="1" si="23">IF(AND($C22="Goal",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="J20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",J$5&gt;=$F22,J$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",J$5&gt;=$F22,J$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="K20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",K$5&gt;=$F22,K$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",K$5&gt;=$F22,K$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="L20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",L$5&gt;=$F22,L$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",L$5&gt;=$F22,L$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="M20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",M$5&gt;=$F22,M$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",M$5&gt;=$F22,M$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="N20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",N$5&gt;=$F22,N$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",N$5&gt;=$F22,N$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="O20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",O$5&gt;=$F22,O$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",O$5&gt;=$F22,O$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="P20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",P$5&gt;=$F22,P$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",P$5&gt;=$F22,P$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Q20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",Q$5&gt;=$F22,Q$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Q$5&gt;=$F22,Q$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="R20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",R$5&gt;=$F22,R$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",R$5&gt;=$F22,R$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="S20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",S$5&gt;=$F22,S$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",S$5&gt;=$F22,S$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="T20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",T$5&gt;=$F22,T$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",T$5&gt;=$F22,T$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="U20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",U$5&gt;=$F22,U$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="V20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",V$5&gt;=$F22,V$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="W20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",W$5&gt;=$F22,W$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",W$5&gt;=$F22,W$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="X20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",X$5&gt;=$F22,X$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Y20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Y$5&gt;=$F22,Y$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="Z20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",Z$5&gt;=$F22,Z$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",Z$5&gt;=$F22,Z$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AA20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AA$5&gt;=$F22,AA$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AA$5&gt;=$F22,AA$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AB20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AB$5&gt;=$F22,AB$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AB$5&gt;=$F22,AB$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AC20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AC$5&gt;=$F22,AC$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AC$5&gt;=$F22,AC$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AD20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AD$5&gt;=$F22,AD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AD$5&gt;=$F22,AD$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AE20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AE$5&gt;=$F22,AE$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AF20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AF$5&gt;=$F22,AF$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AG20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AG$5&gt;=$F22,AG$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AG$5&gt;=$F22,AG$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AH20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AH$5&gt;=$F22,AH$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AH$5&gt;=$F22,AH$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AI20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AI$5&gt;=$F22,AI$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AI$5&gt;=$F22,AI$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AJ20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AJ$5&gt;=$F22,AJ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AJ$5&gt;=$F22,AJ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AK20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AK$5&gt;=$F22,AK$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AK$5&gt;=$F22,AK$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AL20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AL$5&gt;=$F22,AL$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AL$5&gt;=$F22,AL$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AM20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AM$5&gt;=$F22,AM$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AM$5&gt;=$F22,AM$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AN20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AN$5&gt;=$F22,AN$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AN$5&gt;=$F22,AN$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AO20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ref="AO20:BL20" ca="1" si="24">IF(AND($C22="Goal",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),1,""))</f>
         <v/>
       </c>
       <c r="AP20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AP$5&gt;=$F22,AP$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AP$5&gt;=$F22,AP$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AQ20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AQ$5&gt;=$F22,AQ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AQ$5&gt;=$F22,AQ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AR20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AR$5&gt;=$F22,AR$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AR$5&gt;=$F22,AR$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AS20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AS$5&gt;=$F22,AS$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AS$5&gt;=$F22,AS$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AT20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AT$5&gt;=$F22,AT$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AT$5&gt;=$F22,AT$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AU20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AU$5&gt;=$F22,AU$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AU$5&gt;=$F22,AU$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AV20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AV$5&gt;=$F22,AV$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AV$5&gt;=$F22,AV$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AW20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AW$5&gt;=$F22,AW$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AW$5&gt;=$F22,AW$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AX20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AX$5&gt;=$F22,AX$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AX$5&gt;=$F22,AX$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AY20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AY$5&gt;=$F22,AY$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AY$5&gt;=$F22,AY$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AZ20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",AZ$5&gt;=$F22,AZ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AZ$5&gt;=$F22,AZ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BA20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BA$5&gt;=$F22,BA$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BA$5&gt;=$F22,BA$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BB20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BB$5&gt;=$F22,BB$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BB$5&gt;=$F22,BB$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BC20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BC$5&gt;=$F22,BC$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BC$5&gt;=$F22,BC$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BD20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BD$5&gt;=$F22,BD$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BE20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BE$5&gt;=$F22,BE$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BE$5&gt;=$F22,BE$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BF20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BF$5&gt;=$F22,BF$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BF$5&gt;=$F22,BF$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BG20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BG$5&gt;=$F22,BG$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BG$5&gt;=$F22,BG$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BH20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BH$5&gt;=$F22,BH$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BH$5&gt;=$F22,BH$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BI20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BI$5&gt;=$F22,BI$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BI$5&gt;=$F22,BI$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BJ20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BJ$5&gt;=$F22,BJ$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BJ$5&gt;=$F22,BJ$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BK20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BK$5&gt;=$F22,BK$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BK$5&gt;=$F22,BK$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="BL20" s="38" t="str">
-        <f ca="1">IF(AND($C22="Goal",BL$5&gt;=$F22,BL$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",BL$5&gt;=$F22,BL$5&lt;=$F22+$G22-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
     </row>
@@ -5547,238 +5507,234 @@
       <c r="B21" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>12</v>
-      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="33">
-        <v>1</v>
-      </c>
+      <c r="G21" s="33"/>
       <c r="H21" s="26"/>
       <c r="I21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ref="I21:AN21" ca="1" si="25">IF(AND($C23="Goal",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="J21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",J$5&gt;=$F23,J$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",J$5&gt;=$F23,J$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",K$5&gt;=$F23,K$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",K$5&gt;=$F23,K$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="L21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",L$5&gt;=$F23,L$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",L$5&gt;=$F23,L$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="M21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",M$5&gt;=$F23,M$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",M$5&gt;=$F23,M$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="N21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",N$5&gt;=$F23,N$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",N$5&gt;=$F23,N$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="O21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",O$5&gt;=$F23,O$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",O$5&gt;=$F23,O$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="P21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",P$5&gt;=$F23,P$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",P$5&gt;=$F23,P$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="Q21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",Q$5&gt;=$F23,Q$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Q$5&gt;=$F23,Q$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="R21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",R$5&gt;=$F23,R$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",R$5&gt;=$F23,R$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="S21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",S$5&gt;=$F23,S$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",S$5&gt;=$F23,S$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="T21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",T$5&gt;=$F23,T$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",T$5&gt;=$F23,T$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="U21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",U$5&gt;=$F23,U$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",U$5&gt;=$F23,U$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="V21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",V$5&gt;=$F23,V$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",V$5&gt;=$F23,V$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="W21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",W$5&gt;=$F23,W$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",W$5&gt;=$F23,W$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="X21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",X$5&gt;=$F23,X$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="Y21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Y$5&gt;=$F23,Y$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="Z21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",Z$5&gt;=$F23,Z$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",Z$5&gt;=$F23,Z$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AA21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AA$5&gt;=$F23,AA$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AA$5&gt;=$F23,AA$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AB21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AB$5&gt;=$F23,AB$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AB$5&gt;=$F23,AB$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AC21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AC$5&gt;=$F23,AC$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AC$5&gt;=$F23,AC$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AD21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AD$5&gt;=$F23,AD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AD$5&gt;=$F23,AD$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AE21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AE$5&gt;=$F23,AE$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AE$5&gt;=$F23,AE$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AF21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AF$5&gt;=$F23,AF$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AF$5&gt;=$F23,AF$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AG21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AG$5&gt;=$F23,AG$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AG$5&gt;=$F23,AG$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AH21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AH$5&gt;=$F23,AH$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AH$5&gt;=$F23,AH$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AI21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AI$5&gt;=$F23,AI$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AI$5&gt;=$F23,AI$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AJ21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AJ$5&gt;=$F23,AJ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AJ$5&gt;=$F23,AJ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AK21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AK$5&gt;=$F23,AK$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AK$5&gt;=$F23,AK$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AL21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AL$5&gt;=$F23,AL$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AL$5&gt;=$F23,AL$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AM21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AM$5&gt;=$F23,AM$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AM$5&gt;=$F23,AM$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AN21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AN$5&gt;=$F23,AN$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AN$5&gt;=$F23,AN$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AO21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ref="AO21:BL21" ca="1" si="26">IF(AND($C23="Goal",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),1,""))</f>
         <v/>
       </c>
       <c r="AP21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AP$5&gt;=$F23,AP$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AP$5&gt;=$F23,AP$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AQ21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AQ$5&gt;=$F23,AQ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AQ$5&gt;=$F23,AQ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AR21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AR$5&gt;=$F23,AR$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AR$5&gt;=$F23,AR$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AS21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AS$5&gt;=$F23,AS$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AS$5&gt;=$F23,AS$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AT21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AT$5&gt;=$F23,AT$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AT$5&gt;=$F23,AT$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AU21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AU$5&gt;=$F23,AU$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AU$5&gt;=$F23,AU$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AV21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AV$5&gt;=$F23,AV$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AV$5&gt;=$F23,AV$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AW21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AW$5&gt;=$F23,AW$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AW$5&gt;=$F23,AW$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AX21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AX$5&gt;=$F23,AX$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AX$5&gt;=$F23,AX$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AY21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AY$5&gt;=$F23,AY$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AY$5&gt;=$F23,AY$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AZ21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",AZ$5&gt;=$F23,AZ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AZ$5&gt;=$F23,AZ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BA21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BA$5&gt;=$F23,BA$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BA$5&gt;=$F23,BA$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BB21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BB$5&gt;=$F23,BB$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BB$5&gt;=$F23,BB$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BC21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BC$5&gt;=$F23,BC$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BC$5&gt;=$F23,BC$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BD21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BD$5&gt;=$F23,BD$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BE21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BE$5&gt;=$F23,BE$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BE$5&gt;=$F23,BE$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BF21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BF$5&gt;=$F23,BF$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BF$5&gt;=$F23,BF$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BG21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BG$5&gt;=$F23,BG$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BG$5&gt;=$F23,BG$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BH21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BH$5&gt;=$F23,BH$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BH$5&gt;=$F23,BH$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BI21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BI$5&gt;=$F23,BI$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BI$5&gt;=$F23,BI$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BJ21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BJ$5&gt;=$F23,BJ$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BJ$5&gt;=$F23,BJ$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BK21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BK$5&gt;=$F23,BK$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BK$5&gt;=$F23,BK$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="BL21" s="38" t="str">
-        <f ca="1">IF(AND($C23="Goal",BL$5&gt;=$F23,BL$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",BL$5&gt;=$F23,BL$5&lt;=$F23+$G23-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
     </row>
@@ -5791,239 +5747,237 @@
       <c r="D22" s="34"/>
       <c r="E22" s="31"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="33">
-        <v>24</v>
-      </c>
+      <c r="G22" s="33"/>
       <c r="H22" s="26"/>
       <c r="I22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ref="I22:AN22" ca="1" si="27">IF(AND($C24="Goal",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="J22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="L22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="M22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="N22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="O22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="P22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="Q22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="R22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="S22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="T22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="U22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="V22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="W22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="X22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="Y22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="Z22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AA22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AB22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AC22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AD22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AE22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AF22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AG22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AH22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AI22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AJ22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AK22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AL22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AM22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AN22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AO22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ref="AO22:BL22" ca="1" si="28">IF(AND($C24="Goal",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AP22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AQ22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AR22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AS22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AT22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AU22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AV22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AW22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AX22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AY22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AZ22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BA22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BB22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BC22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BD22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BE22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BF22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BG22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BH22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BI22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BJ22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BK22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="BL22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
@@ -6032,227 +5986,227 @@
       <c r="G23" s="33"/>
       <c r="H23" s="26"/>
       <c r="I23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="I23:AN23" ca="1" si="29">IF(AND($C25="Goal",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="K23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="L23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="M23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="N23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="O23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="P23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="Q23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="R23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="S23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="T23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="U23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="V23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="W23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="X23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="Y23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="Z23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AA23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AB23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AC23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AD23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AE23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AF23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AG23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AH23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AI23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AJ23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AK23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AL23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AM23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AN23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AO23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="AO23:BL23" ca="1" si="30">IF(AND($C25="Goal",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AP23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AQ23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AR23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AS23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AT23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AU23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AV23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AW23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AX23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AY23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AZ23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BA23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BB23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BC23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BD23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BE23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BF23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BG23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BH23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BI23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BJ23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BK23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="BL23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
     </row>
@@ -6261,238 +6215,234 @@
       <c r="B24" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>20</v>
-      </c>
+      <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="31"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="33">
-        <v>4</v>
-      </c>
+      <c r="G24" s="33"/>
       <c r="H24" s="26"/>
       <c r="I24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="I24:AN24" ca="1" si="31">IF(AND($C26="Goal",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="J24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="K24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="L24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="M24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="N24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="O24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="P24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="Q24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="R24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="S24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="T24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="U24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="V24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="W24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="X24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="Y24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="Z24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AA24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AB24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AC24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AD24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AE24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AF24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AG24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AH24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AI24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AJ24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AK24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AL24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AM24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AN24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AO24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="AO24:BL24" ca="1" si="32">IF(AND($C26="Goal",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AP24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AQ24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AR24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AS24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AT24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AU24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AV24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AW24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AX24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AY24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AZ24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BA24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BB24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BC24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BD24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BE24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BF24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BG24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BH24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BI24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BJ24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BK24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="BL24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
     </row>
@@ -6501,238 +6451,234 @@
       <c r="B25" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="34" t="s">
-        <v>17</v>
-      </c>
+      <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="31"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="33">
-        <v>14</v>
-      </c>
+      <c r="G25" s="33"/>
       <c r="H25" s="26"/>
       <c r="I25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ref="I25:AN25" ca="1" si="33">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="J25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="K25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="L25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="M25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="N25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="O25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="P25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Q25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="R25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="S25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="T25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="U25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="V25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="W25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="X25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Y25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="Z25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AA25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AB25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AC25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AD25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AE25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AF25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AG25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AH25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AI25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AJ25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AK25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AL25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AM25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AN25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AO25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ref="AO25:BL25" ca="1" si="34">IF(AND($C27="Goal",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AP25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AQ25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AR25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AS25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AT25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AU25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AV25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AW25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AX25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AY25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AZ25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BA25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BB25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BC25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BD25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BE25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BF25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BG25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BH25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BI25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BJ25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BK25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="BL25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
     </row>
@@ -6741,238 +6687,234 @@
       <c r="B26" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>20</v>
-      </c>
+      <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="31"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="33">
-        <v>6</v>
-      </c>
+      <c r="G26" s="33"/>
       <c r="H26" s="26"/>
       <c r="I26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ref="I26:AN26" ca="1" si="35">IF(AND($C28="Goal",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="J26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="K26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="L26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="M26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="N26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="O26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="P26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="Q26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="R26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="S26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="T26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="U26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="V26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="W26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="X26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="Y26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="Z26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AA26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AB26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AC26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AD26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AE26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AF26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AG26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AH26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AI26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AJ26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AK26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AL26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AM26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AN26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AO26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ref="AO26:BL26" ca="1" si="36">IF(AND($C28="Goal",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AP26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AQ26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AR26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AS26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AT26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AU26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AV26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AW26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AX26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AY26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AZ26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BA26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BB26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BC26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BD26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BE26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BF26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BG26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BH26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BI26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BJ26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BK26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="BL26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
     </row>
@@ -6981,238 +6923,234 @@
       <c r="B27" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>11</v>
-      </c>
+      <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="31"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="33">
-        <v>3</v>
-      </c>
+      <c r="G27" s="33"/>
       <c r="H27" s="26"/>
       <c r="I27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ref="I27:AN27" ca="1" si="37">IF(AND($C29="Goal",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="J27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="K27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="L27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="M27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="N27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="O27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="P27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="Q27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="R27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="S27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="T27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="U27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="V27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="W27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="X27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="Y27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="Z27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AA27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AB27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AC27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AD27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AE27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AF27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AG27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AH27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AI27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AJ27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AK27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AL27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AM27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AN27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AO27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ref="AO27:BL27" ca="1" si="38">IF(AND($C29="Goal",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AP27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AQ27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AR27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AS27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AT27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AU27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AV27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AW27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AX27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AY27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AZ27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BA27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BB27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BC27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BD27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BE27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BF27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BG27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BH27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BI27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BJ27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BK27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="BL27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
     </row>
@@ -7221,245 +7159,241 @@
       <c r="B28" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>18</v>
-      </c>
+      <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="31"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="33">
-        <v>19</v>
-      </c>
+      <c r="G28" s="33"/>
       <c r="H28" s="26"/>
       <c r="I28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="I28:AN28" ca="1" si="39">IF(AND($C30="Goal",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="J28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="K28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="L28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="M28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="N28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="O28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="P28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="Q28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="R28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="S28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="T28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="U28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="V28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="W28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="X28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="Y28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="Z28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AA28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AB28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AC28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AD28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AE28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AF28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AG28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AH28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AI28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AJ28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AK28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AL28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AM28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AN28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AO28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="AO28:BL28" ca="1" si="40">IF(AND($C30="Goal",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AP28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AQ28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AR28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AS28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AT28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AU28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AV28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AW28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AX28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AY28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="AZ28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BA28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BB28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BC28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BD28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BE28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BF28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BG28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BH28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BI28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BJ28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BK28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
       <c r="BL28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="40"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14"/>
       <c r="B29" s="42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
@@ -7468,227 +7402,227 @@
       <c r="G29" s="33"/>
       <c r="H29" s="26"/>
       <c r="I29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ref="I29:AN29" ca="1" si="41">IF(AND($C31="Goal",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="J29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="K29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="L29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="M29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="N29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="O29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="P29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="Q29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="R29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="S29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="T29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="U29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="V29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="W29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="X29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="Y29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="Z29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AA29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AB29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AC29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AD29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AE29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AF29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AG29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AH29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AI29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AJ29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AK29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AL29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AM29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AN29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v/>
       </c>
       <c r="AO29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ref="AO29:BL29" ca="1" si="42">IF(AND($C31="Goal",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AP29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AQ29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AR29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AS29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AT29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AU29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AV29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AW29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AX29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AY29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="AZ29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BA29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BB29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BC29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BD29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BE29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BF29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BG29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BH29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BI29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BJ29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BK29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
       <c r="BL29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="42"/>
         <v/>
       </c>
     </row>
@@ -7701,232 +7635,230 @@
       <c r="D30" s="34"/>
       <c r="E30" s="31"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="33">
-        <v>15</v>
-      </c>
+      <c r="G30" s="33"/>
       <c r="H30" s="26"/>
       <c r="I30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="I30:AN30" ca="1" si="43">IF(AND($C32="Goal",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="J30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="K30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="L30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="M30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="N30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="O30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="P30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="Q30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="R30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="S30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="T30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="U30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="V30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="W30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="X30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="Y30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="Z30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AA30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AB30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AC30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AD30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AE30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AF30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AG30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AH30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AI30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AJ30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AK30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AL30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AM30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AN30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="43"/>
         <v/>
       </c>
       <c r="AO30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="AO30:BL30" ca="1" si="44">IF(AND($C32="Goal",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AP30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AQ30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AR30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AS30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AT30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AU30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AV30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AW30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AX30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AY30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="AZ30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BA30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BB30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BC30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BD30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BE30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BF30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BG30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BH30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BI30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BJ30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BK30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="BL30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
     </row>
@@ -7939,232 +7871,230 @@
       <c r="D31" s="34"/>
       <c r="E31" s="31"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="33">
-        <v>5</v>
-      </c>
+      <c r="G31" s="33"/>
       <c r="H31" s="26"/>
       <c r="I31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ref="I31:AN31" ca="1" si="45">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="J31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",J$5&gt;=$F33,J$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",J$5&gt;=$F33,J$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="K31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",K$5&gt;=$F33,K$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",K$5&gt;=$F33,K$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="L31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",L$5&gt;=$F33,L$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",L$5&gt;=$F33,L$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="M31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",M$5&gt;=$F33,M$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",M$5&gt;=$F33,M$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="N31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",N$5&gt;=$F33,N$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",N$5&gt;=$F33,N$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="O31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",O$5&gt;=$F33,O$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",O$5&gt;=$F33,O$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="P31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",P$5&gt;=$F33,P$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",P$5&gt;=$F33,P$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="Q31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",Q$5&gt;=$F33,Q$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Q$5&gt;=$F33,Q$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="R31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",R$5&gt;=$F33,R$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",R$5&gt;=$F33,R$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="S31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",S$5&gt;=$F33,S$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",S$5&gt;=$F33,S$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="T31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",T$5&gt;=$F33,T$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",T$5&gt;=$F33,T$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="U31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",U$5&gt;=$F33,U$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",U$5&gt;=$F33,U$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="V31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",V$5&gt;=$F33,V$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",V$5&gt;=$F33,V$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="W31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",W$5&gt;=$F33,W$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",W$5&gt;=$F33,W$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="X31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",X$5&gt;=$F33,X$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",X$5&gt;=$F33,X$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="Y31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="Z31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",Z$5&gt;=$F33,Z$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Z$5&gt;=$F33,Z$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AA31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AA$5&gt;=$F33,AA$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AA$5&gt;=$F33,AA$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AB31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AB$5&gt;=$F33,AB$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AB$5&gt;=$F33,AB$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AC31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AC$5&gt;=$F33,AC$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AC$5&gt;=$F33,AC$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AD31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AD$5&gt;=$F33,AD$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AD$5&gt;=$F33,AD$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AE31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AE$5&gt;=$F33,AE$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AE$5&gt;=$F33,AE$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AF31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AF$5&gt;=$F33,AF$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AF$5&gt;=$F33,AF$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AG31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AG$5&gt;=$F33,AG$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AG$5&gt;=$F33,AG$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AH31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AH$5&gt;=$F33,AH$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AH$5&gt;=$F33,AH$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AI31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AI$5&gt;=$F33,AI$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AI$5&gt;=$F33,AI$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AJ31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AJ$5&gt;=$F33,AJ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AJ$5&gt;=$F33,AJ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AK31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AK$5&gt;=$F33,AK$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AK$5&gt;=$F33,AK$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AL31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AL$5&gt;=$F33,AL$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AL$5&gt;=$F33,AL$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AM31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AM$5&gt;=$F33,AM$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AM$5&gt;=$F33,AM$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AN31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="AO31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ref="AO31:BL31" ca="1" si="46">IF(AND($C33="Goal",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AP31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AP$5&gt;=$F33,AP$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AP$5&gt;=$F33,AP$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AQ31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AQ$5&gt;=$F33,AQ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AQ$5&gt;=$F33,AQ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AR31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AR$5&gt;=$F33,AR$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AR$5&gt;=$F33,AR$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AS31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AS$5&gt;=$F33,AS$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AS$5&gt;=$F33,AS$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AT31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AT$5&gt;=$F33,AT$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AT$5&gt;=$F33,AT$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AU31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AU$5&gt;=$F33,AU$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AU$5&gt;=$F33,AU$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AV31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AV$5&gt;=$F33,AV$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AV$5&gt;=$F33,AV$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AW31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AW$5&gt;=$F33,AW$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AW$5&gt;=$F33,AW$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AX31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AX$5&gt;=$F33,AX$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AX$5&gt;=$F33,AX$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AY31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AY$5&gt;=$F33,AY$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AY$5&gt;=$F33,AY$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="AZ31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AZ$5&gt;=$F33,AZ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AZ$5&gt;=$F33,AZ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BA31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BA$5&gt;=$F33,BA$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BA$5&gt;=$F33,BA$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BB31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BB$5&gt;=$F33,BB$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BB$5&gt;=$F33,BB$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BC31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BC$5&gt;=$F33,BC$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BC$5&gt;=$F33,BC$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BD31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BD$5&gt;=$F33,BD$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BD$5&gt;=$F33,BD$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BE31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BE$5&gt;=$F33,BE$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BE$5&gt;=$F33,BE$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BF31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BF$5&gt;=$F33,BF$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BF$5&gt;=$F33,BF$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BG31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BG$5&gt;=$F33,BG$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BG$5&gt;=$F33,BG$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BH31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BH$5&gt;=$F33,BH$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BH$5&gt;=$F33,BH$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BI31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BI$5&gt;=$F33,BI$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BI$5&gt;=$F33,BI$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BJ31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BJ$5&gt;=$F33,BJ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BJ$5&gt;=$F33,BJ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BK31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BK$5&gt;=$F33,BK$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BK$5&gt;=$F33,BK$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
       <c r="BL31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BL$5&gt;=$F33,BL$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BL$5&gt;=$F33,BL$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="46"/>
         <v/>
       </c>
     </row>
@@ -8173,238 +8103,234 @@
       <c r="B32" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="34" t="s">
-        <v>12</v>
-      </c>
+      <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="31"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="33">
-        <v>1</v>
-      </c>
+      <c r="G32" s="33"/>
       <c r="H32" s="26"/>
       <c r="I32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ref="I32:AN32" ca="1" si="47">IF(AND($C34="Goal",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="J32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",J$5&gt;=$F34,J$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",J$5&gt;=$F34,J$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="K32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",K$5&gt;=$F34,K$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",K$5&gt;=$F34,K$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="L32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",L$5&gt;=$F34,L$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",L$5&gt;=$F34,L$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="M32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",M$5&gt;=$F34,M$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",M$5&gt;=$F34,M$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="N32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",N$5&gt;=$F34,N$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",N$5&gt;=$F34,N$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="O32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",O$5&gt;=$F34,O$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",O$5&gt;=$F34,O$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="P32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",P$5&gt;=$F34,P$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",P$5&gt;=$F34,P$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="Q32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",Q$5&gt;=$F34,Q$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",Q$5&gt;=$F34,Q$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="R32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",R$5&gt;=$F34,R$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",R$5&gt;=$F34,R$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="S32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",S$5&gt;=$F34,S$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",S$5&gt;=$F34,S$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="T32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",T$5&gt;=$F34,T$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",T$5&gt;=$F34,T$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="U32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",U$5&gt;=$F34,U$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",U$5&gt;=$F34,U$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="V32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",V$5&gt;=$F34,V$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",V$5&gt;=$F34,V$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="W32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",W$5&gt;=$F34,W$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",W$5&gt;=$F34,W$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="X32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",X$5&gt;=$F34,X$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",X$5&gt;=$F34,X$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="Y32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",Y$5&gt;=$F34,Y$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",Y$5&gt;=$F34,Y$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="Z32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",Z$5&gt;=$F34,Z$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",Z$5&gt;=$F34,Z$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AA32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AA$5&gt;=$F34,AA$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AA$5&gt;=$F34,AA$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AB32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AB$5&gt;=$F34,AB$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AB$5&gt;=$F34,AB$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AC32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AC$5&gt;=$F34,AC$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AC$5&gt;=$F34,AC$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AD32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AD$5&gt;=$F34,AD$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AD$5&gt;=$F34,AD$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AE32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AE$5&gt;=$F34,AE$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AE$5&gt;=$F34,AE$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AF32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AF$5&gt;=$F34,AF$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AF$5&gt;=$F34,AF$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AG32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AG$5&gt;=$F34,AG$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AG$5&gt;=$F34,AG$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AH32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AH$5&gt;=$F34,AH$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AH$5&gt;=$F34,AH$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AI32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AI$5&gt;=$F34,AI$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AI$5&gt;=$F34,AI$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AJ32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AJ$5&gt;=$F34,AJ$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AJ$5&gt;=$F34,AJ$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AK32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AK$5&gt;=$F34,AK$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AK$5&gt;=$F34,AK$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AL32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AL$5&gt;=$F34,AL$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AL$5&gt;=$F34,AL$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AM32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AM$5&gt;=$F34,AM$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AM$5&gt;=$F34,AM$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AN32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AN$5&gt;=$F34,AN$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AN$5&gt;=$F34,AN$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="47"/>
         <v/>
       </c>
       <c r="AO32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AO$5&gt;=$F34,AO$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AO$5&gt;=$F34,AO$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ref="AO32:BL32" ca="1" si="48">IF(AND($C34="Goal",AO$5&gt;=$F34,AO$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AO$5&gt;=$F34,AO$5&lt;=$F34+$G34-1),1,""))</f>
         <v/>
       </c>
       <c r="AP32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AP$5&gt;=$F34,AP$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AP$5&gt;=$F34,AP$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AQ32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AQ$5&gt;=$F34,AQ$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AQ$5&gt;=$F34,AQ$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AR32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AR$5&gt;=$F34,AR$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AR$5&gt;=$F34,AR$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AS32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AS$5&gt;=$F34,AS$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AS$5&gt;=$F34,AS$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AT32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AT$5&gt;=$F34,AT$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AT$5&gt;=$F34,AT$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AU32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AU$5&gt;=$F34,AU$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AU$5&gt;=$F34,AU$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AV32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AV$5&gt;=$F34,AV$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AV$5&gt;=$F34,AV$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AW32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AW$5&gt;=$F34,AW$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AW$5&gt;=$F34,AW$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AX32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AX$5&gt;=$F34,AX$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AX$5&gt;=$F34,AX$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AY32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AY$5&gt;=$F34,AY$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AY$5&gt;=$F34,AY$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="AZ32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",AZ$5&gt;=$F34,AZ$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AZ$5&gt;=$F34,AZ$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BA32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BA$5&gt;=$F34,BA$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BA$5&gt;=$F34,BA$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BB32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BB$5&gt;=$F34,BB$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BB$5&gt;=$F34,BB$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BC32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BC$5&gt;=$F34,BC$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BC$5&gt;=$F34,BC$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BD32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BD$5&gt;=$F34,BD$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BD$5&gt;=$F34,BD$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BE32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BE$5&gt;=$F34,BE$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BE$5&gt;=$F34,BE$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BF32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BF$5&gt;=$F34,BF$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BF$5&gt;=$F34,BF$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BG32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BG$5&gt;=$F34,BG$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BG$5&gt;=$F34,BG$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BH32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BH$5&gt;=$F34,BH$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BH$5&gt;=$F34,BH$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BI32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BI$5&gt;=$F34,BI$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BI$5&gt;=$F34,BI$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BJ32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BJ$5&gt;=$F34,BJ$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BJ$5&gt;=$F34,BJ$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BK32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BK$5&gt;=$F34,BK$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BK$5&gt;=$F34,BK$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
       <c r="BL32" s="38" t="str">
-        <f ca="1">IF(AND($C34="Goal",BL$5&gt;=$F34,BL$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",BL$5&gt;=$F34,BL$5&lt;=$F34+$G34-1),1,""))</f>
+        <f t="shared" ca="1" si="48"/>
         <v/>
       </c>
     </row>
@@ -8422,233 +8348,233 @@
       <c r="G33" s="33"/>
       <c r="H33" s="26"/>
       <c r="I33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="I33:AN33" ca="1" si="49">IF(AND($C35="Goal",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="J33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="K33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",K$5&gt;=$F35,K$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",K$5&gt;=$F35,K$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="L33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",L$5&gt;=$F35,L$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",L$5&gt;=$F35,L$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="M33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",M$5&gt;=$F35,M$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",M$5&gt;=$F35,M$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="N33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",N$5&gt;=$F35,N$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",N$5&gt;=$F35,N$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="O33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",O$5&gt;=$F35,O$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",O$5&gt;=$F35,O$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="P33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",P$5&gt;=$F35,P$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",P$5&gt;=$F35,P$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="Q33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",Q$5&gt;=$F35,Q$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Q$5&gt;=$F35,Q$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="R33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",R$5&gt;=$F35,R$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",R$5&gt;=$F35,R$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="S33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",S$5&gt;=$F35,S$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",S$5&gt;=$F35,S$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="T33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="U33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",U$5&gt;=$F35,U$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",U$5&gt;=$F35,U$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="V33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",V$5&gt;=$F35,V$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",V$5&gt;=$F35,V$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="W33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",W$5&gt;=$F35,W$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",W$5&gt;=$F35,W$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="X33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",X$5&gt;=$F35,X$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",X$5&gt;=$F35,X$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="Y33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",Y$5&gt;=$F35,Y$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Y$5&gt;=$F35,Y$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="Z33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",Z$5&gt;=$F35,Z$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Z$5&gt;=$F35,Z$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AA33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AA$5&gt;=$F35,AA$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AA$5&gt;=$F35,AA$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AB33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AB$5&gt;=$F35,AB$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AB$5&gt;=$F35,AB$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AC33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AC$5&gt;=$F35,AC$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AC$5&gt;=$F35,AC$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AD33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AE33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AE$5&gt;=$F35,AE$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AE$5&gt;=$F35,AE$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AF33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AF$5&gt;=$F35,AF$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AF$5&gt;=$F35,AF$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AG33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AG$5&gt;=$F35,AG$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AG$5&gt;=$F35,AG$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AH33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AH$5&gt;=$F35,AH$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AH$5&gt;=$F35,AH$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AI33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AI$5&gt;=$F35,AI$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AI$5&gt;=$F35,AI$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AJ33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AJ$5&gt;=$F35,AJ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AJ$5&gt;=$F35,AJ$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AK33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AK$5&gt;=$F35,AK$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AK$5&gt;=$F35,AK$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AL33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AL$5&gt;=$F35,AL$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AL$5&gt;=$F35,AL$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AM33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AM$5&gt;=$F35,AM$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AM$5&gt;=$F35,AM$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AN33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="49"/>
         <v/>
       </c>
       <c r="AO33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="AO33:BL33" ca="1" si="50">IF(AND($C35="Goal",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AP33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AP$5&gt;=$F35,AP$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AP$5&gt;=$F35,AP$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AQ33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AQ$5&gt;=$F35,AQ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AQ$5&gt;=$F35,AQ$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AR33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AR$5&gt;=$F35,AR$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AR$5&gt;=$F35,AR$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AS33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AS$5&gt;=$F35,AS$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AS$5&gt;=$F35,AS$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AT33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AT$5&gt;=$F35,AT$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AT$5&gt;=$F35,AT$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AU33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AU$5&gt;=$F35,AU$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AU$5&gt;=$F35,AU$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AV33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AV$5&gt;=$F35,AV$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AV$5&gt;=$F35,AV$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AW33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AW$5&gt;=$F35,AW$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AW$5&gt;=$F35,AW$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AX33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AY33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AY$5&gt;=$F35,AY$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AY$5&gt;=$F35,AY$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="AZ33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AZ$5&gt;=$F35,AZ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AZ$5&gt;=$F35,AZ$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BA33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BA$5&gt;=$F35,BA$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BA$5&gt;=$F35,BA$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BB33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BB$5&gt;=$F35,BB$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BB$5&gt;=$F35,BB$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BC33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BC$5&gt;=$F35,BC$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BC$5&gt;=$F35,BC$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BD33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BD$5&gt;=$F35,BD$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BD$5&gt;=$F35,BD$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BE33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BE$5&gt;=$F35,BE$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BE$5&gt;=$F35,BE$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BF33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BF$5&gt;=$F35,BF$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BF$5&gt;=$F35,BF$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BG33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BG$5&gt;=$F35,BG$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BG$5&gt;=$F35,BG$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BH33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BI33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BI$5&gt;=$F35,BI$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BI$5&gt;=$F35,BI$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BJ33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BJ$5&gt;=$F35,BJ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BJ$5&gt;=$F35,BJ$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BK33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BK$5&gt;=$F35,BK$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BK$5&gt;=$F35,BK$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="BL33" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BL$5&gt;=$F35,BL$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BL$5&gt;=$F35,BL$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>2</v>
@@ -8727,7 +8653,7 @@
     </row>
     <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -8769,73 +8695,73 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL34">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL14">
-    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="43" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="61" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="62" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="63" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="9" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="71" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="72" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="73" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="75" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL33">
-    <cfRule type="expression" dxfId="4" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="90" stopIfTrue="1">
       <formula>AND($C17="Low Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="91" stopIfTrue="1">
       <formula>AND($C17="High Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="92" stopIfTrue="1">
       <formula>AND($C17="On Track",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="93" stopIfTrue="1">
       <formula>AND($C17="Med Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="94" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8972,7 +8898,7 @@
     </row>
     <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -8982,12 +8908,12 @@
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/System Implementation Doc.xlsx
+++ b/System Implementation Doc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8900EB1D-896D-4FA1-88EA-EC16765F3947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB3D997-2637-46A5-8629-D8035AF252CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12198" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>Draft Context Diagrams</t>
   </si>
   <si>
-    <t>Sprint 1 - Documentation</t>
-  </si>
-  <si>
     <t>Sprint 2 - Design and Implementation</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Sprint 4 - Testing &amp; Maintenance</t>
+  </si>
+  <si>
+    <t>Sprint 1 - Documentation and Requirements Definition</t>
   </si>
 </sst>
 </file>
@@ -797,7 +797,116 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1343,20 +1452,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="totalRow" dxfId="28"/>
-      <tableStyleElement type="firstColumn" dxfId="27"/>
-      <tableStyleElement type="lastColumn" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1519,9 +1628,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -1803,8 +1912,8 @@
   </sheetPr>
   <dimension ref="A1:BL38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2643,7 +2752,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -2891,7 +3000,9 @@
       <c r="F10" s="32">
         <v>43479</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="33">
+        <v>1</v>
+      </c>
       <c r="H10" s="26"/>
       <c r="I10" s="38" t="str">
         <f ca="1">IF(AND($C10="Goal",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),2,IF(AND($C10="Milestone",I$5&gt;=$F10,I$5&lt;=$F10+$G10-1),1,""))</f>
@@ -3131,7 +3242,9 @@
       <c r="F11" s="32">
         <v>43479</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="33">
+        <v>2</v>
+      </c>
       <c r="H11" s="26"/>
       <c r="I11" s="38" t="str">
         <f t="shared" ref="I11:I13" ca="1" si="10">IF(AND($C11="Goal",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),2,IF(AND($C11="Milestone",I$5&gt;=$F11,I$5&lt;=$F11+$G11-1),1,""))</f>
@@ -3371,7 +3484,9 @@
       <c r="F12" s="32">
         <v>43479</v>
       </c>
-      <c r="G12" s="33"/>
+      <c r="G12" s="33">
+        <v>1</v>
+      </c>
       <c r="H12" s="26"/>
       <c r="I12" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3611,7 +3726,9 @@
       <c r="F13" s="32">
         <v>43479</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
       <c r="H13" s="26"/>
       <c r="I13" s="38" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -3851,10 +3968,12 @@
       <c r="F14" s="32">
         <v>43479</v>
       </c>
-      <c r="G14" s="33"/>
+      <c r="G14" s="33">
+        <v>3</v>
+      </c>
       <c r="H14" s="26"/>
       <c r="I14" s="38" t="str">
-        <f t="shared" ref="I14:AN14" ca="1" si="11">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ref="I14:AN16" ca="1" si="11">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="J14" s="38" t="str">
@@ -4091,7 +4210,9 @@
       <c r="F15" s="32">
         <v>43479</v>
       </c>
-      <c r="G15" s="33"/>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
       <c r="H15" s="26"/>
       <c r="I15" s="38" t="str">
         <f t="shared" ref="I15:AN15" ca="1" si="13">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
@@ -4331,7 +4452,9 @@
       <c r="F16" s="32">
         <v>43479</v>
       </c>
-      <c r="G16" s="33"/>
+      <c r="G16" s="33">
+        <v>2</v>
+      </c>
       <c r="H16" s="26"/>
       <c r="I16" s="38" t="str">
         <f t="shared" ref="I16:AN16" ca="1" si="15">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
@@ -4362,11 +4485,11 @@
         <v/>
       </c>
       <c r="P16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="Q16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
       <c r="R16" s="38" t="str">
@@ -4561,7 +4684,7 @@
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -5977,7 +6100,7 @@
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
@@ -7393,7 +7516,7 @@
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14"/>
       <c r="B29" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
@@ -8681,7 +8804,7 @@
     <mergeCell ref="S2:V2"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E35">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8695,74 +8818,91 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL34">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="26" priority="6">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="20" priority="7">
+    <cfRule type="expression" dxfId="25" priority="12">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL14">
-    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="48" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="66" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="67" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="68" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="12" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="76" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="77" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="78" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="79" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="80" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL33">
-    <cfRule type="expression" dxfId="7" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="95" stopIfTrue="1">
       <formula>AND($C17="Low Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="96" stopIfTrue="1">
       <formula>AND($C17="High Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="97" stopIfTrue="1">
       <formula>AND($C17="On Track",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="98" stopIfTrue="1">
       <formula>AND($C17="Med Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="99" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:Q16">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>AND($C16="Low Risk",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>AND($C16="High Risk",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>AND($C16="On Track",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+      <formula>AND($C16="Med Risk",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>AND(LEN($C16)=0,P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -8834,7 +8974,7 @@
           <xm:sqref>E7:E35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="14" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8853,7 +8993,7 @@
           <xm:sqref>I8:BL33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="70" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="75" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/System Implementation Doc.xlsx
+++ b/System Implementation Doc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB3D997-2637-46A5-8629-D8035AF252CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84E4857-937C-4CDB-AFDC-DFC39CAC1515}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12198" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Task 3</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Guide for Screen Readers</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>This is an empty row</t>
@@ -216,6 +213,18 @@
   </si>
   <si>
     <t>Sprint 1 - Documentation and Requirements Definition</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>Phil</t>
   </si>
 </sst>
 </file>
@@ -1912,8 +1921,8 @@
   </sheetPr>
   <dimension ref="A1:BL38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1932,17 +1941,17 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A1" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="G1" s="7"/>
       <c r="I1" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="20"/>
@@ -1971,43 +1980,43 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
       <c r="I2" s="61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="N2" s="62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" s="62"/>
       <c r="P2" s="62"/>
       <c r="Q2" s="62"/>
       <c r="R2" s="20"/>
       <c r="S2" s="63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T2" s="63"/>
       <c r="U2" s="63"/>
       <c r="V2" s="63"/>
       <c r="W2" s="20"/>
       <c r="X2" s="53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y2" s="53"/>
       <c r="Z2" s="53"/>
       <c r="AA2" s="53"/>
       <c r="AB2" s="20"/>
       <c r="AC2" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD2" s="54"/>
       <c r="AE2" s="54"/>
@@ -2015,14 +2024,14 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="59">
@@ -2033,13 +2042,13 @@
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="45">
@@ -2128,10 +2137,10 @@
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
@@ -2366,7 +2375,7 @@
     </row>
     <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -2434,25 +2443,25 @@
     </row>
     <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>13</v>
-      </c>
       <c r="G7" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="25" t="str">
@@ -2682,7 +2691,7 @@
     </row>
     <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="30"/>
@@ -2749,10 +2758,10 @@
     </row>
     <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -2988,20 +2997,20 @@
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15"/>
       <c r="B10" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="32">
         <v>43479</v>
       </c>
       <c r="G10" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="38" t="str">
@@ -3232,12 +3241,14 @@
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15"/>
       <c r="B11" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32">
         <v>43479</v>
@@ -3474,12 +3485,14 @@
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="E12" s="31"/>
       <c r="F12" s="32">
         <v>43479</v>
@@ -3716,10 +3729,10 @@
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="31"/>
@@ -3958,10 +3971,10 @@
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="31"/>
@@ -3969,7 +3982,7 @@
         <v>43479</v>
       </c>
       <c r="G14" s="33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="38" t="str">
@@ -4200,10 +4213,10 @@
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="31"/>
@@ -4442,12 +4455,14 @@
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15"/>
       <c r="B16" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="34"/>
+        <v>14</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" s="31"/>
       <c r="F16" s="32">
         <v>43479</v>
@@ -4684,7 +4699,7 @@
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
       <c r="B17" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
@@ -6100,7 +6115,7 @@
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
       <c r="B23" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
@@ -7516,7 +7531,7 @@
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14"/>
       <c r="B29" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
@@ -8459,7 +8474,7 @@
     </row>
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="41" t="s">
         <v>1</v>
@@ -8697,7 +8712,7 @@
     </row>
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="41" t="s">
         <v>2</v>
@@ -8776,7 +8791,7 @@
     </row>
     <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
@@ -9038,7 +9053,7 @@
     </row>
     <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
@@ -9048,12 +9063,12 @@
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/System Implementation Doc.xlsx
+++ b/System Implementation Doc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84E4857-937C-4CDB-AFDC-DFC39CAC1515}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11022D9-6B81-41A7-8125-217826DED290}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12198" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Task 3</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 1</t>
   </si>
   <si>
     <t>Task 2</t>
@@ -197,13 +194,7 @@
     <t>Product Description</t>
   </si>
   <si>
-    <t>Project Milestones</t>
-  </si>
-  <si>
     <t>Draft Context Diagrams</t>
-  </si>
-  <si>
-    <t>Sprint 2 - Design and Implementation</t>
   </si>
   <si>
     <t>Sprint 3 - Implementation &amp; Testing</t>
@@ -225,6 +216,45 @@
   </si>
   <si>
     <t>Phil</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Informal Presentation with Client</t>
+  </si>
+  <si>
+    <t>Formal Presentation to Peers</t>
+  </si>
+  <si>
+    <t>Sprint 2 -System Design</t>
+  </si>
+  <si>
+    <t>System Design</t>
+  </si>
+  <si>
+    <t>System Design Document(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preliminary Project Document </t>
+  </si>
+  <si>
+    <t>Functioning base system</t>
+  </si>
+  <si>
+    <t>System is presentable and documented</t>
+  </si>
+  <si>
+    <t>System is completed and functioning</t>
+  </si>
+  <si>
+    <t>Sprint 5 - Presentation</t>
   </si>
 </sst>
 </file>
@@ -632,7 +662,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -791,12 +821,21 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
+    <cellStyle name="Date" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
@@ -804,9 +843,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="56">
     <dxf>
       <fill>
         <patternFill>
@@ -917,13 +956,331 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="7" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right style="thin">
+          <color theme="6"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1317,6 +1674,15 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -1410,6 +1776,28 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1459,22 +1847,26 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="38"/>
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+  <tableStyles count="3" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Gantt Table Style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="55"/>
+      <tableStyleElement type="headerRow" dxfId="54"/>
+      <tableStyleElement type="firstRowStripe" dxfId="53"/>
     </tableStyle>
-    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="totalRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
-      <tableStyleElement type="lastColumn" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+    </tableStyle>
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="totalRow" dxfId="48"/>
+      <tableStyleElement type="firstColumn" dxfId="47"/>
+      <tableStyleElement type="lastColumn" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="43"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1627,8 +2019,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B7:G35" totalsRowShown="0">
-  <autoFilter ref="B7:G35" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Milestones" displayName="Milestones" ref="B7:G35" totalsRowShown="0">
+  <autoFilter ref="B7:G35" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1637,12 +2029,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE48C34E-B98C-4BBA-90C8-388E8655DD6D}" name="Milestone Description" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B8ACC97F-C189-49BA-91CF-CB5671185BCF}" name="Category" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{5419FA1B-A035-4F0A-9257-1AA4BCB5E6CF}" name="Assigned To" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A60A6524-18F0-48B7-BB3C-2F4A35799FF7}" name="Progress"/>
-    <tableColumn id="5" xr3:uid="{59612C1F-9AAB-483B-A6A5-3563E9D77941}" name="Start" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{012C59F1-49D4-4A67-B8DD-855C6581FD6A}" name="No. Days" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone Description" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1919,10 +2311,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B27" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1941,17 +2333,17 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="1.05">
       <c r="A1" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="1"/>
       <c r="F1"/>
       <c r="G1" s="7"/>
       <c r="I1" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="20"/>
@@ -1980,43 +2372,43 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
       <c r="I2" s="61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
       <c r="L2" s="61"/>
       <c r="N2" s="62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O2" s="62"/>
       <c r="P2" s="62"/>
       <c r="Q2" s="62"/>
       <c r="R2" s="20"/>
       <c r="S2" s="63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T2" s="63"/>
       <c r="U2" s="63"/>
       <c r="V2" s="63"/>
       <c r="W2" s="20"/>
       <c r="X2" s="53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="53"/>
       <c r="Z2" s="53"/>
       <c r="AA2" s="53"/>
       <c r="AB2" s="20"/>
       <c r="AC2" s="54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD2" s="54"/>
       <c r="AE2" s="54"/>
@@ -2024,14 +2416,14 @@
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="59">
@@ -2042,13 +2434,13 @@
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="56"/>
       <c r="F4" s="45">
@@ -2137,10 +2529,10 @@
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="58"/>
       <c r="D5" s="58"/>
@@ -2375,7 +2767,7 @@
     </row>
     <row r="6" spans="1:64" s="20" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -2443,25 +2835,25 @@
     </row>
     <row r="7" spans="1:64" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="E7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="25" t="str">
@@ -2691,7 +3083,7 @@
     </row>
     <row r="8" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="30"/>
@@ -2758,10 +3150,10 @@
     </row>
     <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -2997,17 +3389,17 @@
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="15"/>
       <c r="B10" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="32">
-        <v>43479</v>
+        <v>43485</v>
       </c>
       <c r="G10" s="33">
         <v>2</v>
@@ -3241,20 +3633,20 @@
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="15"/>
       <c r="B11" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32">
-        <v>43479</v>
+        <v>43483</v>
       </c>
       <c r="G11" s="33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="38" t="str">
@@ -3485,20 +3877,20 @@
     <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14"/>
       <c r="B12" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="32">
-        <v>43479</v>
+        <v>43482</v>
       </c>
       <c r="G12" s="33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="38" t="str">
@@ -3729,18 +4121,20 @@
     <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14"/>
       <c r="B13" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="31"/>
       <c r="F13" s="32">
-        <v>43479</v>
+        <v>43472</v>
       </c>
       <c r="G13" s="33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="38" t="str">
@@ -3971,22 +4365,24 @@
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="31"/>
       <c r="F14" s="32">
         <v>43479</v>
       </c>
       <c r="G14" s="33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="38" t="str">
-        <f t="shared" ref="I14:AN16" ca="1" si="11">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
+        <f t="shared" ref="I14:AN14" ca="1" si="11">IF(AND($C14="Goal",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),2,IF(AND($C14="Milestone",I$5&gt;=$F14,I$5&lt;=$F14+$G14-1),1,""))</f>
         <v/>
       </c>
       <c r="J14" s="38" t="str">
@@ -4213,965 +4609,807 @@
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15"/>
       <c r="B15" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="34"/>
+        <v>16</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="31"/>
       <c r="F15" s="32">
-        <v>43479</v>
+        <v>43482</v>
       </c>
       <c r="G15" s="33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="38" t="str">
-        <f t="shared" ref="I15:AN15" ca="1" si="13">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
+        <f ca="1">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="J15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="K15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="L15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="M15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="N15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="O15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="P15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C15="Goal",P$5&gt;=$F15,P$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",P$5&gt;=$F15,P$5&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="Q15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C15="Goal",Q$5&gt;=$F15,Q$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",Q$5&gt;=$F15,Q$5&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="R15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",R$5&gt;=$F17,R$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="S15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C15="Goal",S$5&gt;=$F15,S$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",S$5&gt;=$F15,S$5&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="T15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C15="Goal",T$5&gt;=$F15,T$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",T$5&gt;=$F15,T$5&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="U15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C15="Goal",U$5&gt;=$F15,U$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",U$5&gt;=$F15,U$5&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="V15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C15="Goal",V$5&gt;=$F15,V$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",V$5&gt;=$F15,V$5&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="W15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C15="Goal",W$5&gt;=$F15,W$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",W$5&gt;=$F15,W$5&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
       <c r="X15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="Y15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="Z15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AA15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AB15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AC15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AD15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AE15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AF15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AG15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AH15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AI15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AK15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AL15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AM15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AN15" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(AND($C17="Goal",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AO15" s="38" t="str">
-        <f t="shared" ref="AO15:BL15" ca="1" si="14">IF(AND($C17="Goal",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),1,""))</f>
+        <f ca="1">IF(AND($C17="Goal",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AP15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AR15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AS15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AT15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AU15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AV15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AW15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AX15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AY15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BA15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BB15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BC15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BD15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BE15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BF15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BG15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BH15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BI15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BK15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="BL15" s="38" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f ca="1">IF(AND($C17="Goal",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="15"/>
-      <c r="B16" s="41" t="s">
-        <v>47</v>
+      <c r="A16" s="14"/>
+      <c r="B16" s="64" t="s">
+        <v>56</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>55</v>
+      </c>
       <c r="F16" s="32">
-        <v>43479</v>
+        <v>43487</v>
       </c>
       <c r="G16" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="38" t="str">
-        <f t="shared" ref="I16:AN16" ca="1" si="15">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
+        <f ca="1">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="J16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="K16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="L16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="M16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="N16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="O16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="P16" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C18="Goal",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",P$5&gt;=$F18,P$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="Q16" s="38" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f ca="1">IF(AND($C18="Goal",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Q$5&gt;=$F18,Q$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="R16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",R$5&gt;=$F18,R$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="S16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ref="S16:T16" ca="1" si="13">IF(AND($C16="Goal",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="T16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="U16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C16="Goal",U$5&gt;=$F16,U$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",U$5&gt;=$F16,U$5&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="V16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C16="Goal",V$5&gt;=$F16,V$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",V$5&gt;=$F16,V$5&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="W16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v/>
-      </c>
-      <c r="X16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C16="Goal",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="X16" s="65" t="str">
+        <f ca="1">IF(AND($C18="Goal",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="Y16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="Z16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AA16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AB16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AC16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AD16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AE16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AF16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AG16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AH16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AI16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AK16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AL16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AM16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AN16" s="38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f ca="1">IF(AND($C18="Goal",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AO16" s="38" t="str">
-        <f t="shared" ref="AO16:BL16" ca="1" si="16">IF(AND($C18="Goal",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),1,""))</f>
+        <f ca="1">IF(AND($C18="Goal",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AP16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AR16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AS16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AT16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AU16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AV16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AW16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AX16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AY16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BA16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BB16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BC16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BD16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BE16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BF16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BG16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BH16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BI16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BK16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="BL16" s="38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f ca="1">IF(AND($C18="Goal",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14"/>
-      <c r="B17" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="E17" s="31"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="26"/>
       <c r="I17" s="38" t="str">
-        <f t="shared" ref="I17:AN17" ca="1" si="17">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
+        <f ca="1">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="J17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="K17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="L17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="M17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="N17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="O17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="P17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",P$5&gt;=$F19,P$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Q17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Q$5&gt;=$F19,Q$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="R17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",R$5&gt;=$F19,R$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="S17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",S$5&gt;=$F19,S$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="T17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",T$5&gt;=$F19,T$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="U17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",U$5&gt;=$F19,U$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="V17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",V$5&gt;=$F19,V$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="W17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",W$5&gt;=$F19,W$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="X17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Y17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Z17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AA17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AB17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AC17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AD17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AE17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AF17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AG17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AH17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AI17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AK17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AL17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AM17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AN17" s="38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f ca="1">IF(AND($C19="Goal",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AO17" s="38" t="str">
-        <f t="shared" ref="AO17:BL17" ca="1" si="18">IF(AND($C19="Goal",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
+        <f ca="1">IF(AND($C19="Goal",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AP17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AR17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AS17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AT17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AU17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AV17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AW17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AX17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AY17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BA17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BB17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BC17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BD17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BE17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BF17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BG17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BH17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BI17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BK17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="BL17" s="38" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(AND($C19="Goal",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="14"/>
-      <c r="B18" s="41" t="s">
-        <v>3</v>
+      <c r="B18" s="42" t="s">
+        <v>58</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="32">
+        <v>43500</v>
+      </c>
       <c r="G18" s="33"/>
       <c r="H18" s="26"/>
-      <c r="I18" s="38" t="str">
-        <f t="shared" ref="I18:AN18" ca="1" si="19">IF(AND($C20="Goal",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",I$5&gt;=$F20,I$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="L18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="M18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="N18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="O18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="P18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Q18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="R18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="S18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="T18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="U18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="V18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="W18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="X18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Y18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="Z18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AA18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AB18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AC18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AD18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AE18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AF18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AG18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AH18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AI18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AJ18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AK18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AL18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AM18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AN18" s="38" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="AO18" s="38" t="str">
-        <f t="shared" ref="AO18:BL18" ca="1" si="20">IF(AND($C20="Goal",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),2,IF(AND($C20="Milestone",AO$5&gt;=$F20,AO$5&lt;=$F20+$G20-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AQ18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AR18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AS18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AT18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AU18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AV18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AW18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AX18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AY18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="AZ18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BA18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BB18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BC18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BD18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BE18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BF18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BG18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BH18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BI18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BJ18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BK18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
-      <c r="BL18" s="38" t="str">
-        <f t="shared" ca="1" si="20"/>
-        <v/>
-      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="38"/>
+      <c r="AM18" s="38"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="38"/>
+      <c r="BG18" s="38"/>
+      <c r="BH18" s="38"/>
+      <c r="BI18" s="38"/>
+      <c r="BJ18" s="38"/>
+      <c r="BK18" s="38"/>
+      <c r="BL18" s="38"/>
     </row>
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="14"/>
       <c r="B19" s="41" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
@@ -5179,235 +5417,67 @@
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="38" t="str">
-        <f t="shared" ref="I19:AN19" ca="1" si="21">IF(AND($C21="Goal",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",I$5&gt;=$F21,I$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="K19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="L19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="M19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="N19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="O19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="P19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="Q19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="R19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="S19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="T19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="U19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="V19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="W19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="X19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="Y19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="Z19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AA19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AB19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AC19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AD19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AE19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AF19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AG19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AH19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AI19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AJ19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AK19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AL19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AM19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AN19" s="38" t="str">
-        <f t="shared" ca="1" si="21"/>
-        <v/>
-      </c>
-      <c r="AO19" s="38" t="str">
-        <f t="shared" ref="AO19:BL19" ca="1" si="22">IF(AND($C21="Goal",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),2,IF(AND($C21="Milestone",AO$5&gt;=$F21,AO$5&lt;=$F21+$G21-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AQ19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AR19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AS19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AT19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AU19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AV19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AW19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AX19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AY19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="AZ19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BA19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BB19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BC19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BD19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BE19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BF19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BG19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BH19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BI19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BJ19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BK19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
-      <c r="BL19" s="38" t="str">
-        <f t="shared" ca="1" si="22"/>
-        <v/>
-      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="38"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="38"/>
+      <c r="AL19" s="38"/>
+      <c r="AM19" s="38"/>
+      <c r="AN19" s="38"/>
+      <c r="AO19" s="38"/>
+      <c r="AP19" s="38"/>
+      <c r="AQ19" s="38"/>
+      <c r="AR19" s="38"/>
+      <c r="AS19" s="38"/>
+      <c r="AT19" s="38"/>
+      <c r="AU19" s="38"/>
+      <c r="AV19" s="38"/>
+      <c r="AW19" s="38"/>
+      <c r="AX19" s="38"/>
+      <c r="AY19" s="38"/>
+      <c r="AZ19" s="38"/>
+      <c r="BA19" s="38"/>
+      <c r="BB19" s="38"/>
+      <c r="BC19" s="38"/>
+      <c r="BD19" s="38"/>
+      <c r="BE19" s="38"/>
+      <c r="BF19" s="38"/>
+      <c r="BG19" s="38"/>
+      <c r="BH19" s="38"/>
+      <c r="BI19" s="38"/>
+      <c r="BJ19" s="38"/>
+      <c r="BK19" s="38"/>
+      <c r="BL19" s="38"/>
     </row>
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="14"/>
       <c r="B20" s="41" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -5415,235 +5485,67 @@
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="38" t="str">
-        <f t="shared" ref="I20:AN20" ca="1" si="23">IF(AND($C22="Goal",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",I$5&gt;=$F22,I$5&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="K20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="L20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="M20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="N20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="O20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="P20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="Q20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="R20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="S20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="T20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="U20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="V20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="W20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="X20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="Y20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="Z20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AA20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AB20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AC20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AD20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AE20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AF20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AG20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AH20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AI20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AJ20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AK20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AL20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AM20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AN20" s="38" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v/>
-      </c>
-      <c r="AO20" s="38" t="str">
-        <f t="shared" ref="AO20:BL20" ca="1" si="24">IF(AND($C22="Goal",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),2,IF(AND($C22="Milestone",AO$5&gt;=$F22,AO$5&lt;=$F22+$G22-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AQ20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AR20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AS20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AT20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AU20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AV20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AW20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AX20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AY20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="AZ20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BA20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BB20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BC20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BD20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BE20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BF20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BG20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BH20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BI20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BJ20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BK20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="BL20" s="38" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="38"/>
+      <c r="AM20" s="38"/>
+      <c r="AN20" s="38"/>
+      <c r="AO20" s="38"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="38"/>
+      <c r="BG20" s="38"/>
+      <c r="BH20" s="38"/>
+      <c r="BI20" s="38"/>
+      <c r="BJ20" s="38"/>
+      <c r="BK20" s="38"/>
+      <c r="BL20" s="38"/>
     </row>
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="14"/>
       <c r="B21" s="41" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
@@ -5651,471 +5553,305 @@
       <c r="F21" s="32"/>
       <c r="G21" s="33"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="38" t="str">
-        <f t="shared" ref="I21:AN21" ca="1" si="25">IF(AND($C23="Goal",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",I$5&gt;=$F23,I$5&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="K21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="L21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="M21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="N21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="O21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="P21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="Q21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="R21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="S21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="T21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="U21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="V21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="W21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="X21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="Y21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="Z21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AA21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AB21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AC21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AD21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AE21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AF21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AG21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AH21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AI21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AJ21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AK21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AL21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AM21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AN21" s="38" t="str">
-        <f t="shared" ca="1" si="25"/>
-        <v/>
-      </c>
-      <c r="AO21" s="38" t="str">
-        <f t="shared" ref="AO21:BL21" ca="1" si="26">IF(AND($C23="Goal",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),2,IF(AND($C23="Milestone",AO$5&gt;=$F23,AO$5&lt;=$F23+$G23-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AQ21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AR21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AS21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AT21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AU21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AV21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AW21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AX21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AY21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="AZ21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BA21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BB21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BC21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BD21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BE21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BF21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BG21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BH21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BI21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BJ21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BK21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
-      <c r="BL21" s="38" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v/>
-      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="38"/>
+      <c r="AM21" s="38"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="38"/>
+      <c r="BG21" s="38"/>
+      <c r="BH21" s="38"/>
+      <c r="BI21" s="38"/>
+      <c r="BJ21" s="38"/>
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
     </row>
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="14"/>
-      <c r="B22" s="41" t="s">
-        <v>2</v>
+      <c r="B22" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="F22" s="32">
+        <v>43528</v>
+      </c>
       <c r="G22" s="33"/>
       <c r="H22" s="26"/>
       <c r="I22" s="38" t="str">
-        <f t="shared" ref="I22:AN22" ca="1" si="27">IF(AND($C24="Goal",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),1,""))</f>
+        <f ca="1">IF(AND($C24="Goal",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="J22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="K22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="L22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="M22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="N22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="O22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="P22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="Q22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="R22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="S22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="T22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="U22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="V22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="W22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="X22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="Y22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="Z22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AA22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AB22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AC22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AD22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AE22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AF22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AG22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AH22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AI22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AK22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AL22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AM22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AN22" s="38" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f ca="1">IF(AND($C24="Goal",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AO22" s="38" t="str">
-        <f t="shared" ref="AO22:BL22" ca="1" si="28">IF(AND($C24="Goal",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),1,""))</f>
+        <f ca="1">IF(AND($C24="Goal",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AP22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AR22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AS22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AT22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AU22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AV22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AW22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AX22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AY22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BA22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BB22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BC22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BD22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BE22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BF22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BG22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BH22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BI22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BK22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="BL22" s="38" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f ca="1">IF(AND($C24="Goal",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="14"/>
-      <c r="B23" s="42" t="s">
-        <v>49</v>
+      <c r="B23" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
@@ -6124,234 +5860,234 @@
       <c r="G23" s="33"/>
       <c r="H23" s="26"/>
       <c r="I23" s="38" t="str">
-        <f t="shared" ref="I23:AN23" ca="1" si="29">IF(AND($C25="Goal",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),1,""))</f>
+        <f ca="1">IF(AND($C25="Goal",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="K23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="L23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="M23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="N23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="O23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="P23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="Q23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="R23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="S23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="T23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="U23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="V23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="W23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="X23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="Y23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="Z23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AA23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AB23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AC23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AD23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AE23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AF23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AG23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AH23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AI23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AK23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AL23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AM23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AN23" s="38" t="str">
-        <f t="shared" ca="1" si="29"/>
+        <f ca="1">IF(AND($C25="Goal",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AO23" s="38" t="str">
-        <f t="shared" ref="AO23:BL23" ca="1" si="30">IF(AND($C25="Goal",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),1,""))</f>
+        <f ca="1">IF(AND($C25="Goal",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AP23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AR23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AS23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AT23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AU23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AV23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AW23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AX23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AY23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BA23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BB23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BC23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BD23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BE23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BF23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BG23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BH23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BI23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BK23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="BL23" s="38" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f ca="1">IF(AND($C25="Goal",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="14"/>
       <c r="B24" s="41" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -6360,234 +6096,234 @@
       <c r="G24" s="33"/>
       <c r="H24" s="26"/>
       <c r="I24" s="38" t="str">
-        <f t="shared" ref="I24:AN24" ca="1" si="31">IF(AND($C26="Goal",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
+        <f ca="1">IF(AND($C26="Goal",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="J24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="K24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="L24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="M24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="N24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="O24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="P24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="Q24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="R24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="S24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="T24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="U24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="V24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="W24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="X24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="Y24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="Z24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AA24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AB24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AC24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AD24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AE24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AF24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AG24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AH24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AI24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AK24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AL24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AM24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AN24" s="38" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f ca="1">IF(AND($C26="Goal",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AO24" s="38" t="str">
-        <f t="shared" ref="AO24:BL24" ca="1" si="32">IF(AND($C26="Goal",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),1,""))</f>
+        <f ca="1">IF(AND($C26="Goal",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AP24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AR24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AS24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AT24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AU24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AV24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AW24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AX24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AY24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BA24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BB24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BC24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BD24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BE24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BF24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BG24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BH24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BI24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BK24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="BL24" s="38" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f ca="1">IF(AND($C26="Goal",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="14"/>
       <c r="B25" s="41" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
@@ -6596,234 +6332,234 @@
       <c r="G25" s="33"/>
       <c r="H25" s="26"/>
       <c r="I25" s="38" t="str">
-        <f t="shared" ref="I25:AN25" ca="1" si="33">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
+        <f ca="1">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="J25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="K25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="L25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="M25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="N25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="O25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="P25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="Q25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="R25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="S25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="T25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="U25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="V25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="W25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="X25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="Y25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="Z25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AA25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AB25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AC25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AD25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AE25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AF25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AG25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AH25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AI25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AK25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AL25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AM25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AN25" s="38" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f ca="1">IF(AND($C27="Goal",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AO25" s="38" t="str">
-        <f t="shared" ref="AO25:BL25" ca="1" si="34">IF(AND($C27="Goal",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),1,""))</f>
+        <f ca="1">IF(AND($C27="Goal",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AP25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AR25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AS25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AT25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AU25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AV25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AW25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AX25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AY25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BA25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BB25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BC25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BD25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BE25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BF25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BG25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BH25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BI25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BK25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="BL25" s="38" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f ca="1">IF(AND($C27="Goal",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="14"/>
       <c r="B26" s="41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -6832,234 +6568,234 @@
       <c r="G26" s="33"/>
       <c r="H26" s="26"/>
       <c r="I26" s="38" t="str">
-        <f t="shared" ref="I26:AN26" ca="1" si="35">IF(AND($C28="Goal",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
+        <f ca="1">IF(AND($C28="Goal",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="J26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="K26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="L26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="M26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="N26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="O26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="P26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="Q26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="R26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="S26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="T26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="U26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="V26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="W26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="X26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="Y26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="Z26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AA26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AB26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AC26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AD26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AE26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AF26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AG26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AH26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AI26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AK26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AL26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AM26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AN26" s="38" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f ca="1">IF(AND($C28="Goal",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AO26" s="38" t="str">
-        <f t="shared" ref="AO26:BL26" ca="1" si="36">IF(AND($C28="Goal",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),1,""))</f>
+        <f ca="1">IF(AND($C28="Goal",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AP26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AR26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AS26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AT26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AU26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AV26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AW26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AX26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AY26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BA26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BB26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BC26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BD26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BE26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BF26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BG26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BH26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BI26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BK26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="BL26" s="38" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f ca="1">IF(AND($C28="Goal",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="14"/>
       <c r="B27" s="41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
@@ -7068,470 +6804,472 @@
       <c r="G27" s="33"/>
       <c r="H27" s="26"/>
       <c r="I27" s="38" t="str">
-        <f t="shared" ref="I27:AN27" ca="1" si="37">IF(AND($C29="Goal",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),1,""))</f>
+        <f ca="1">IF(AND($C29="Goal",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="J27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="K27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="L27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="M27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="N27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="O27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="P27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="Q27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="R27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="S27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="T27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="U27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="V27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="W27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="X27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="Y27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="Z27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AA27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AB27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AC27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AD27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AE27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AF27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AG27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AH27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AI27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AK27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AL27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AM27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AN27" s="38" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f ca="1">IF(AND($C29="Goal",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AO27" s="38" t="str">
-        <f t="shared" ref="AO27:BL27" ca="1" si="38">IF(AND($C29="Goal",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),1,""))</f>
+        <f ca="1">IF(AND($C29="Goal",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AP27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AR27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AS27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AT27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AU27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AV27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AW27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AX27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AY27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BA27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BB27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BC27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BD27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BE27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BF27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BG27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BH27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BI27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BK27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="BL27" s="38" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f ca="1">IF(AND($C29="Goal",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="14"/>
-      <c r="B28" s="41" t="s">
-        <v>2</v>
+      <c r="B28" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="32">
+        <v>43556</v>
+      </c>
       <c r="G28" s="33"/>
       <c r="H28" s="26"/>
       <c r="I28" s="38" t="str">
-        <f t="shared" ref="I28:AN28" ca="1" si="39">IF(AND($C30="Goal",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),1,""))</f>
+        <f ca="1">IF(AND($C30="Goal",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="J28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="K28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="L28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="M28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="N28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="O28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="P28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Q28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="R28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="S28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="T28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="U28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="V28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="W28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="X28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Y28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="Z28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AA28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AB28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AC28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AD28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AE28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AF28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AG28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AH28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AI28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AK28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AL28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AM28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AN28" s="38" t="str">
-        <f t="shared" ca="1" si="39"/>
+        <f ca="1">IF(AND($C30="Goal",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AO28" s="38" t="str">
-        <f t="shared" ref="AO28:BL28" ca="1" si="40">IF(AND($C30="Goal",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),1,""))</f>
+        <f ca="1">IF(AND($C30="Goal",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AP28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AR28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AS28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AT28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AU28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AV28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AW28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AX28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AY28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BA28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BB28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BC28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BD28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BE28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BF28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BG28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BH28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BI28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BK28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="BL28" s="38" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f ca="1">IF(AND($C30="Goal",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="14"/>
-      <c r="B29" s="42" t="s">
-        <v>50</v>
+      <c r="B29" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
@@ -7540,227 +7278,227 @@
       <c r="G29" s="33"/>
       <c r="H29" s="26"/>
       <c r="I29" s="38" t="str">
-        <f t="shared" ref="I29:AN29" ca="1" si="41">IF(AND($C31="Goal",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),1,""))</f>
+        <f ca="1">IF(AND($C31="Goal",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="J29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="K29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="L29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="M29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="N29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="O29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="P29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="Q29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="R29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="S29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="T29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="U29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="V29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="W29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="X29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="Y29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="Z29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AA29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AB29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AC29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AD29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AE29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AF29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AG29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AH29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AI29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AK29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AL29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AM29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AN29" s="38" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f ca="1">IF(AND($C31="Goal",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AO29" s="38" t="str">
-        <f t="shared" ref="AO29:BL29" ca="1" si="42">IF(AND($C31="Goal",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),1,""))</f>
+        <f ca="1">IF(AND($C31="Goal",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AP29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AR29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AS29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AT29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AU29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AV29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AW29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AX29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AY29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BA29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BB29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BC29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BD29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BE29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BF29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BG29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BH29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BI29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BK29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="BL29" s="38" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f ca="1">IF(AND($C31="Goal",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
     </row>
@@ -7776,234 +7514,234 @@
       <c r="G30" s="33"/>
       <c r="H30" s="26"/>
       <c r="I30" s="38" t="str">
-        <f t="shared" ref="I30:AN30" ca="1" si="43">IF(AND($C32="Goal",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),1,""))</f>
+        <f ca="1">IF(AND($C32="Goal",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="J30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="K30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="L30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="M30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="N30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="O30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="P30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="Q30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="R30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="S30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="T30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="U30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="V30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="W30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="X30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="Y30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="Z30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AA30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AB30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AC30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AD30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AE30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AF30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AG30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AH30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AI30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AK30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AL30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AM30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AN30" s="38" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f ca="1">IF(AND($C32="Goal",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AO30" s="38" t="str">
-        <f t="shared" ref="AO30:BL30" ca="1" si="44">IF(AND($C32="Goal",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),1,""))</f>
+        <f ca="1">IF(AND($C32="Goal",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AP30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AR30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AS30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AT30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AU30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AV30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AW30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AX30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AY30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BA30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BB30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BC30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BD30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BE30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BF30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BG30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BH30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BI30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BK30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="BL30" s="38" t="str">
-        <f t="shared" ca="1" si="44"/>
+        <f ca="1">IF(AND($C32="Goal",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="14"/>
       <c r="B31" s="41" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -8012,234 +7750,236 @@
       <c r="G31" s="33"/>
       <c r="H31" s="26"/>
       <c r="I31" s="38" t="str">
-        <f t="shared" ref="I31:AN31" ca="1" si="45">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
+        <f ca="1">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="J31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",J$5&gt;=$F33,J$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",J$5&gt;=$F33,J$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="K31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",K$5&gt;=$F33,K$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",K$5&gt;=$F33,K$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="L31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",L$5&gt;=$F33,L$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",L$5&gt;=$F33,L$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="M31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",M$5&gt;=$F33,M$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",M$5&gt;=$F33,M$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="N31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",N$5&gt;=$F33,N$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",N$5&gt;=$F33,N$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="O31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",O$5&gt;=$F33,O$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",O$5&gt;=$F33,O$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="P31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",P$5&gt;=$F33,P$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",P$5&gt;=$F33,P$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="Q31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",Q$5&gt;=$F33,Q$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Q$5&gt;=$F33,Q$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="R31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",R$5&gt;=$F33,R$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",R$5&gt;=$F33,R$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="S31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",S$5&gt;=$F33,S$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",S$5&gt;=$F33,S$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="T31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",T$5&gt;=$F33,T$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",T$5&gt;=$F33,T$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="U31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",U$5&gt;=$F33,U$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",U$5&gt;=$F33,U$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="V31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",V$5&gt;=$F33,V$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",V$5&gt;=$F33,V$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="W31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",W$5&gt;=$F33,W$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",W$5&gt;=$F33,W$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="X31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",X$5&gt;=$F33,X$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",X$5&gt;=$F33,X$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="Y31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="Z31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",Z$5&gt;=$F33,Z$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Z$5&gt;=$F33,Z$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AA31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AA$5&gt;=$F33,AA$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AA$5&gt;=$F33,AA$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AB31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AB$5&gt;=$F33,AB$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AB$5&gt;=$F33,AB$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AC31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AC$5&gt;=$F33,AC$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AC$5&gt;=$F33,AC$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AD31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AD$5&gt;=$F33,AD$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AD$5&gt;=$F33,AD$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AE31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AE$5&gt;=$F33,AE$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AE$5&gt;=$F33,AE$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AF31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AF$5&gt;=$F33,AF$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AF$5&gt;=$F33,AF$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AG31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AG$5&gt;=$F33,AG$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AG$5&gt;=$F33,AG$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AH31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AH$5&gt;=$F33,AH$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AH$5&gt;=$F33,AH$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AI31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AI$5&gt;=$F33,AI$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AI$5&gt;=$F33,AI$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AJ$5&gt;=$F33,AJ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AJ$5&gt;=$F33,AJ$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AK31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AK$5&gt;=$F33,AK$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AK$5&gt;=$F33,AK$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AL31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AL$5&gt;=$F33,AL$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AL$5&gt;=$F33,AL$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AM31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AM$5&gt;=$F33,AM$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AM$5&gt;=$F33,AM$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AN31" s="38" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f ca="1">IF(AND($C33="Goal",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AO31" s="38" t="str">
-        <f t="shared" ref="AO31:BL31" ca="1" si="46">IF(AND($C33="Goal",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),1,""))</f>
+        <f ca="1">IF(AND($C33="Goal",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AP31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AP$5&gt;=$F33,AP$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AP$5&gt;=$F33,AP$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AQ$5&gt;=$F33,AQ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AQ$5&gt;=$F33,AQ$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AR31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AR$5&gt;=$F33,AR$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AR$5&gt;=$F33,AR$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AS31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AS$5&gt;=$F33,AS$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AS$5&gt;=$F33,AS$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AT31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AT$5&gt;=$F33,AT$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AT$5&gt;=$F33,AT$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AU31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AU$5&gt;=$F33,AU$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AU$5&gt;=$F33,AU$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AV31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AV$5&gt;=$F33,AV$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AV$5&gt;=$F33,AV$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AW31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AW$5&gt;=$F33,AW$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AW$5&gt;=$F33,AW$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AX31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AX$5&gt;=$F33,AX$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AX$5&gt;=$F33,AX$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AY31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AY$5&gt;=$F33,AY$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AY$5&gt;=$F33,AY$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",AZ$5&gt;=$F33,AZ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AZ$5&gt;=$F33,AZ$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BA31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BA$5&gt;=$F33,BA$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BA$5&gt;=$F33,BA$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BB31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BB$5&gt;=$F33,BB$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BB$5&gt;=$F33,BB$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BC31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BC$5&gt;=$F33,BC$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BC$5&gt;=$F33,BC$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BD31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BD$5&gt;=$F33,BD$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BD$5&gt;=$F33,BD$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BE31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BE$5&gt;=$F33,BE$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BE$5&gt;=$F33,BE$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BF31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BF$5&gt;=$F33,BF$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BF$5&gt;=$F33,BF$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BG31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BG$5&gt;=$F33,BG$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BG$5&gt;=$F33,BG$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BH31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BH$5&gt;=$F33,BH$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BH$5&gt;=$F33,BH$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BI31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BI$5&gt;=$F33,BI$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BI$5&gt;=$F33,BI$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BJ$5&gt;=$F33,BJ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BJ$5&gt;=$F33,BJ$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BK31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BK$5&gt;=$F33,BK$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BK$5&gt;=$F33,BK$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="BL31" s="38" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f ca="1">IF(AND($C33="Goal",BL$5&gt;=$F33,BL$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BL$5&gt;=$F33,BL$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="B32" s="41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -8248,537 +7988,307 @@
       <c r="G32" s="33"/>
       <c r="H32" s="26"/>
       <c r="I32" s="38" t="str">
-        <f t="shared" ref="I32:AN32" ca="1" si="47">IF(AND($C34="Goal",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",I$5&gt;=$F34,I$5&lt;=$F34+$G34-1),1,""))</f>
+        <f ca="1">IF(AND($C35="Goal",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="J32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="K32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",K$5&gt;=$F35,K$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",K$5&gt;=$F35,K$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="L32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",L$5&gt;=$F35,L$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",L$5&gt;=$F35,L$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="M32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",M$5&gt;=$F35,M$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",M$5&gt;=$F35,M$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="N32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",N$5&gt;=$F35,N$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",N$5&gt;=$F35,N$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="O32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",O$5&gt;=$F35,O$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",O$5&gt;=$F35,O$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="P32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",P$5&gt;=$F35,P$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",P$5&gt;=$F35,P$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="Q32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",Q$5&gt;=$F35,Q$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Q$5&gt;=$F35,Q$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="R32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",R$5&gt;=$F35,R$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",R$5&gt;=$F35,R$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="S32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",S$5&gt;=$F35,S$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",S$5&gt;=$F35,S$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="T32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="U32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",U$5&gt;=$F35,U$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",U$5&gt;=$F35,U$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="V32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",V$5&gt;=$F35,V$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",V$5&gt;=$F35,V$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="W32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",W$5&gt;=$F35,W$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",W$5&gt;=$F35,W$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="X32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",X$5&gt;=$F35,X$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",X$5&gt;=$F35,X$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="Y32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",Y$5&gt;=$F35,Y$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Y$5&gt;=$F35,Y$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="Z32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",Z$5&gt;=$F35,Z$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Z$5&gt;=$F35,Z$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AA32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AA$5&gt;=$F35,AA$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AA$5&gt;=$F35,AA$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AB32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AB$5&gt;=$F35,AB$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AB$5&gt;=$F35,AB$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AC32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AC$5&gt;=$F35,AC$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AC$5&gt;=$F35,AC$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AD32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AE32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AE$5&gt;=$F35,AE$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AE$5&gt;=$F35,AE$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AF32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AF$5&gt;=$F35,AF$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AF$5&gt;=$F35,AF$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AG32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AG$5&gt;=$F35,AG$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AG$5&gt;=$F35,AG$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AH32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AH$5&gt;=$F35,AH$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AH$5&gt;=$F35,AH$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AI32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AI$5&gt;=$F35,AI$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AI$5&gt;=$F35,AI$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AJ32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AJ$5&gt;=$F35,AJ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AJ$5&gt;=$F35,AJ$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AK32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AK$5&gt;=$F35,AK$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AK$5&gt;=$F35,AK$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AL32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AL$5&gt;=$F35,AL$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AL$5&gt;=$F35,AL$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AM32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AM$5&gt;=$F35,AM$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AM$5&gt;=$F35,AM$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AN32" s="38" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f ca="1">IF(AND($C35="Goal",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AO32" s="38" t="str">
-        <f t="shared" ref="AO32:BL32" ca="1" si="48">IF(AND($C34="Goal",AO$5&gt;=$F34,AO$5&lt;=$F34+$G34-1),2,IF(AND($C34="Milestone",AO$5&gt;=$F34,AO$5&lt;=$F34+$G34-1),1,""))</f>
+        <f ca="1">IF(AND($C35="Goal",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AP32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AP$5&gt;=$F35,AP$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AP$5&gt;=$F35,AP$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AQ32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AQ$5&gt;=$F35,AQ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AQ$5&gt;=$F35,AQ$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AR32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AR$5&gt;=$F35,AR$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AR$5&gt;=$F35,AR$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AS32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AS$5&gt;=$F35,AS$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AS$5&gt;=$F35,AS$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AT32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AT$5&gt;=$F35,AT$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AT$5&gt;=$F35,AT$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AU32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AU$5&gt;=$F35,AU$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AU$5&gt;=$F35,AU$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AV32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AV$5&gt;=$F35,AV$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AV$5&gt;=$F35,AV$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AW32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AW$5&gt;=$F35,AW$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AW$5&gt;=$F35,AW$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AX32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AY32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AY$5&gt;=$F35,AY$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AY$5&gt;=$F35,AY$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AZ32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",AZ$5&gt;=$F35,AZ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AZ$5&gt;=$F35,AZ$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BA32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BA$5&gt;=$F35,BA$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BA$5&gt;=$F35,BA$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BB32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BB$5&gt;=$F35,BB$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BB$5&gt;=$F35,BB$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BC32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BC$5&gt;=$F35,BC$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BC$5&gt;=$F35,BC$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BD32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BD$5&gt;=$F35,BD$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BD$5&gt;=$F35,BD$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BE32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BE$5&gt;=$F35,BE$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BE$5&gt;=$F35,BE$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BF32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BF$5&gt;=$F35,BF$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BF$5&gt;=$F35,BF$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BG32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BG$5&gt;=$F35,BG$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BG$5&gt;=$F35,BG$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BH32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BI32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BI$5&gt;=$F35,BI$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BI$5&gt;=$F35,BI$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BJ32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BJ$5&gt;=$F35,BJ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BJ$5&gt;=$F35,BJ$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BK32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BK$5&gt;=$F35,BK$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BK$5&gt;=$F35,BK$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="BL32" s="38" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f ca="1">IF(AND($C35="Goal",BL$5&gt;=$F35,BL$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BL$5&gt;=$F35,BL$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="14" t="s">
-        <v>7</v>
+    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="31"/>
       <c r="F33" s="32"/>
       <c r="G33" s="33"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="38" t="str">
-        <f t="shared" ref="I33:AN33" ca="1" si="49">IF(AND($C35="Goal",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="J33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="K33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="L33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="M33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="N33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="O33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="P33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="Q33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="R33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="S33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="T33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="U33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="V33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="W33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="X33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="Y33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="Z33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AA33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AB33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AC33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AD33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AE33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AF33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AG33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AH33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AI33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AJ33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AK33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AL33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AM33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AN33" s="38" t="str">
-        <f t="shared" ca="1" si="49"/>
-        <v/>
-      </c>
-      <c r="AO33" s="38" t="str">
-        <f t="shared" ref="AO33:BL33" ca="1" si="50">IF(AND($C35="Goal",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AP33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AQ33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AR33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AS33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AT33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AU33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AV33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AW33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AX33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AY33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="AZ33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BA33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BB33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BC33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BD33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BE33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BF33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BG33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BH33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BI33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BJ33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BK33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
-      <c r="BL33" s="38" t="str">
-        <f t="shared" ca="1" si="50"/>
-        <v/>
-      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="37"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="37"/>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37"/>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37"/>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37"/>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="37"/>
+      <c r="AP33" s="37"/>
+      <c r="AQ33" s="37"/>
+      <c r="AR33" s="37"/>
+      <c r="AS33" s="37"/>
+      <c r="AT33" s="37"/>
+      <c r="AU33" s="37"/>
+      <c r="AV33" s="37"/>
+      <c r="AW33" s="37"/>
+      <c r="AX33" s="37"/>
+      <c r="AY33" s="37"/>
+      <c r="AZ33" s="37"/>
+      <c r="BA33" s="37"/>
+      <c r="BB33" s="37"/>
+      <c r="BC33" s="37"/>
+      <c r="BD33" s="37"/>
+      <c r="BE33" s="37"/>
+      <c r="BF33" s="37"/>
+      <c r="BG33" s="37"/>
+      <c r="BH33" s="37"/>
+      <c r="BI33" s="37"/>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="37"/>
+      <c r="BL33" s="37"/>
     </row>
-    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+    <row r="34" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B34" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="66">
+        <v>43570</v>
+      </c>
       <c r="H34" s="39"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37"/>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37"/>
-      <c r="AB34" s="37"/>
-      <c r="AC34" s="37"/>
-      <c r="AD34" s="37"/>
-      <c r="AE34" s="37"/>
-      <c r="AF34" s="37"/>
-      <c r="AG34" s="37"/>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37"/>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37"/>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37"/>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="37"/>
-      <c r="AP34" s="37"/>
-      <c r="AQ34" s="37"/>
-      <c r="AR34" s="37"/>
-      <c r="AS34" s="37"/>
-      <c r="AT34" s="37"/>
-      <c r="AU34" s="37"/>
-      <c r="AV34" s="37"/>
-      <c r="AW34" s="37"/>
-      <c r="AX34" s="37"/>
-      <c r="AY34" s="37"/>
-      <c r="AZ34" s="37"/>
-      <c r="BA34" s="37"/>
-      <c r="BB34" s="37"/>
-      <c r="BC34" s="37"/>
-      <c r="BD34" s="37"/>
-      <c r="BE34" s="37"/>
-      <c r="BF34" s="37"/>
-      <c r="BG34" s="37"/>
-      <c r="BH34" s="37"/>
-      <c r="BI34" s="37"/>
-      <c r="BJ34" s="37"/>
-      <c r="BK34" s="37"/>
-      <c r="BL34" s="37"/>
     </row>
     <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="41"/>
@@ -8789,22 +8299,32 @@
       <c r="G35" s="33"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="24"/>
+    <row r="36" spans="1:64" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="14"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" s="5"/>
-      <c r="G37" s="16"/>
+      <c r="B37" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="G38" s="16"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8818,8 +8338,8 @@
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="S2:V2"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E35">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="E7:E17 E35:E36 E19:E33">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8832,102 +8352,167 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL34">
-    <cfRule type="expression" dxfId="26" priority="6">
+  <conditionalFormatting sqref="I5:BL33">
+    <cfRule type="expression" dxfId="38" priority="32">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="25" priority="12">
+    <cfRule type="expression" dxfId="37" priority="38">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="36" priority="34">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL14">
-    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
+  <conditionalFormatting sqref="I8:BL14 P15:Q15 S15:W15">
+    <cfRule type="expression" dxfId="34" priority="55" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="74" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="92" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="93" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="94" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="17" priority="76" stopIfTrue="1">
+  <conditionalFormatting sqref="I33:BL33">
+    <cfRule type="expression" dxfId="29" priority="102" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="103" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="104" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="105" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="106" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:BL33">
-    <cfRule type="expression" dxfId="12" priority="95" stopIfTrue="1">
+  <conditionalFormatting sqref="I15:BL31">
+    <cfRule type="expression" dxfId="24" priority="121" stopIfTrue="1">
       <formula>AND($C17="Low Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="122" stopIfTrue="1">
       <formula>AND($C17="High Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="123" stopIfTrue="1">
       <formula>AND($C17="On Track",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="124" stopIfTrue="1">
       <formula>AND($C17="Med Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="125" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P16:Q16">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
-      <formula>AND($C16="Low Risk",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
+  <conditionalFormatting sqref="I32:BL32">
+    <cfRule type="expression" dxfId="19" priority="132" stopIfTrue="1">
+      <formula>AND($C35="Low Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
-      <formula>AND($C16="High Risk",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
+    <cfRule type="expression" dxfId="18" priority="133" stopIfTrue="1">
+      <formula>AND($C35="High Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>AND($C16="On Track",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
+    <cfRule type="expression" dxfId="17" priority="134" stopIfTrue="1">
+      <formula>AND($C35="On Track",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>AND($C16="Med Risk",P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
+    <cfRule type="expression" dxfId="16" priority="135" stopIfTrue="1">
+      <formula>AND($C35="Med Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>AND(LEN($C16)=0,P$5&gt;=$F16,P$5&lt;=$F16+$G16-1)</formula>
+    <cfRule type="expression" dxfId="15" priority="136" stopIfTrue="1">
+      <formula>AND(LEN($C35)=0,I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:W16">
+    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+      <formula>AND($C16="Low Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+      <formula>AND($C16="High Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND($C16="On Track",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+      <formula>AND($C16="Med Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
+      <formula>AND(LEN($C16)=0,S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:W16">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+      <formula>AND($C16="Low Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+      <formula>AND($C16="High Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+      <formula>AND($C16="On Track",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+      <formula>AND($C16="Med Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+      <formula>AND(LEN($C16)=0,S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:T16">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>AND($C16="Low Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND($C16="High Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND($C16="On Track",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+      <formula>AND($C16="Med Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+      <formula>AND(LEN($C16)=0,S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C3BFB00C-D7BC-44DE-B114-4500D8A1BEFC}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrolling Increment" prompt="Changing this number will scroll the Gantt Chart view." sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C10:C35" xr:uid="{5196C805-6432-41E6-873E-6E411B98A976}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C35:C36 C10:C33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9" xr:uid="{77D76407-42C8-4F92-8CBE-1B847121E7CF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Goal,Milestone,On Track, Low Risk, Med Risk, High Risk"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8986,10 +8571,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E7:E35</xm:sqref>
+          <xm:sqref>E7:E17 E35:E36 E19:E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="101" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9005,10 +8590,10 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I8:BL33</xm:sqref>
+          <xm:sqref>I33:BL33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="75" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="152" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9024,7 +8609,22 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>I34:BL34</xm:sqref>
+          <xm:sqref>I8:BL32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C3BFB00C-D7BC-44DE-B114-4500D8A1BEFC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9048,27 +8648,27 @@
   <sheetData>
     <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.95">
       <c r="A1" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="84.4" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="10" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/System Implementation Doc.xlsx
+++ b/System Implementation Doc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11022D9-6B81-41A7-8125-217826DED290}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F3D97-B8F7-4C30-B763-C8EC0C067337}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8730" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Task 3</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Sprint 5 - Presentation</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
   </si>
 </sst>
 </file>
@@ -792,6 +795,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,15 +833,6 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Accent3" xfId="11" builtinId="37"/>
@@ -846,6 +849,15 @@
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="56">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1674,15 +1686,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2029,9 +2032,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone Description" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Milestone Description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned To" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="No. Days" dataCellStyle="Comma [0]"/>
@@ -2313,8 +2316,8 @@
   </sheetPr>
   <dimension ref="A1:BL39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B27" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="51" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2380,39 +2383,39 @@
       <c r="C2" s="18"/>
       <c r="F2" s="23"/>
       <c r="G2" s="21"/>
-      <c r="I2" s="61" t="s">
+      <c r="I2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="N2" s="62" t="s">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="N2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
       <c r="R2" s="20"/>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
       <c r="W2" s="20"/>
-      <c r="X2" s="53" t="s">
+      <c r="X2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="54" t="s">
+      <c r="AC2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="15" t="s">
@@ -2422,14 +2425,14 @@
         <v>37</v>
       </c>
       <c r="C3" s="19"/>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="59">
+      <c r="E3" s="59"/>
+      <c r="F3" s="62">
         <v>43472</v>
       </c>
-      <c r="G3" s="60"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.75">
@@ -2439,10 +2442,10 @@
       <c r="B4" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="45">
         <v>0</v>
       </c>
@@ -2531,15 +2534,15 @@
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="49">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
         <v>43472</v>
@@ -3397,12 +3400,14 @@
       <c r="D10" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="F10" s="32">
         <v>43485</v>
       </c>
       <c r="G10" s="33">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="38" t="str">
@@ -3641,12 +3646,14 @@
       <c r="D11" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="F11" s="32">
         <v>43483</v>
       </c>
       <c r="G11" s="33">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="38" t="str">
@@ -3885,12 +3892,14 @@
       <c r="D12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" s="32">
         <v>43482</v>
       </c>
       <c r="G12" s="33">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="38" t="str">
@@ -4129,12 +4138,14 @@
       <c r="D13" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="F13" s="32">
         <v>43472</v>
       </c>
       <c r="G13" s="33">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="38" t="str">
@@ -4373,12 +4384,14 @@
       <c r="D14" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>55</v>
+      </c>
       <c r="F14" s="32">
         <v>43479</v>
       </c>
       <c r="G14" s="33">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="38" t="str">
@@ -4617,40 +4630,42 @@
       <c r="D15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="F15" s="32">
         <v>43482</v>
       </c>
       <c r="G15" s="33">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ref="I15:O17" ca="1" si="13">IF(AND($C17="Goal",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1),1,""))</f>
         <v/>
       </c>
       <c r="J15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",J$5&gt;=$F17,J$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",K$5&gt;=$F17,K$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",L$5&gt;=$F17,L$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",M$5&gt;=$F17,M$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="N15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",N$5&gt;=$F17,N$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="O15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",O$5&gt;=$F17,O$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="P15" s="38" t="str">
@@ -4685,174 +4700,174 @@
         <f ca="1">IF(AND($C15="Goal",W$5&gt;=$F15,W$5&lt;=$F15+$G15-1),2,IF(AND($C15="Milestone",W$5&gt;=$F15,W$5&lt;=$F15+$G15-1),1,""))</f>
         <v/>
       </c>
-      <c r="X15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Y15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Y$5&gt;=$F17,Y$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="Z15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",Z$5&gt;=$F17,Z$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AA15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AA$5&gt;=$F17,AA$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AB15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AB$5&gt;=$F17,AB$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AC15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AC$5&gt;=$F17,AC$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AD15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AD$5&gt;=$F17,AD$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AE15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AE$5&gt;=$F17,AE$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AF15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AF$5&gt;=$F17,AF$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AG15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AG$5&gt;=$F17,AG$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AH15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AH$5&gt;=$F17,AH$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AI15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AI$5&gt;=$F17,AI$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AJ15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AJ$5&gt;=$F17,AJ$5&lt;=$F17+$G17-1),1,""))</f>
-        <v/>
-      </c>
-      <c r="AK15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AK$5&gt;=$F17,AK$5&lt;=$F17+$G17-1),1,""))</f>
+      <c r="X15" s="54" t="str">
+        <f t="shared" ref="X15:BL15" ca="1" si="14">IF(AND($C17="Goal",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",X$5&gt;=$F17,X$5&lt;=$F17+$G17-1),1,""))</f>
+        <v/>
+      </c>
+      <c r="Y15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="Z15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AA15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AB15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AC15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AD15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AE15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AF15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AG15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AH15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AI15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AJ15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AK15" s="54" t="str">
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AL15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AL$5&gt;=$F17,AL$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AM15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AM$5&gt;=$F17,AM$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AN$5&gt;=$F17,AN$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AO15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AO$5&gt;=$F17,AO$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AP15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AP$5&gt;=$F17,AP$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AQ15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AQ$5&gt;=$F17,AQ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AR15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AR$5&gt;=$F17,AR$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AS15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AS$5&gt;=$F17,AS$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AT15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AT$5&gt;=$F17,AT$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AU15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AU$5&gt;=$F17,AU$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AV15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AV$5&gt;=$F17,AV$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AW15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AW$5&gt;=$F17,AW$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AX15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AX$5&gt;=$F17,AX$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AY15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AY$5&gt;=$F17,AY$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AZ15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",AZ$5&gt;=$F17,AZ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BA15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BA$5&gt;=$F17,BA$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BB15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BB$5&gt;=$F17,BB$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BC15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BC$5&gt;=$F17,BC$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BD15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BD$5&gt;=$F17,BD$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BE15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BE$5&gt;=$F17,BE$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BF15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BF$5&gt;=$F17,BF$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BG15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BG$5&gt;=$F17,BG$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BH15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BH$5&gt;=$F17,BH$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BI15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BI$5&gt;=$F17,BI$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BJ15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BJ$5&gt;=$F17,BJ$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BK15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BK$5&gt;=$F17,BK$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="BL15" s="38" t="str">
-        <f ca="1">IF(AND($C17="Goal",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),2,IF(AND($C17="Milestone",BL$5&gt;=$F17,BL$5&lt;=$F17+$G17-1),1,""))</f>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="53" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -4872,31 +4887,31 @@
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",I$5&gt;=$F18,I$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="J16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",J$5&gt;=$F18,J$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",K$5&gt;=$F18,K$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",L$5&gt;=$F18,L$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",M$5&gt;=$F18,M$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="N16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",N$5&gt;=$F18,N$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="O16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",O$5&gt;=$F18,O$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="P16" s="38" t="str">
@@ -4912,11 +4927,11 @@
         <v/>
       </c>
       <c r="S16" s="38" t="str">
-        <f t="shared" ref="S16:T16" ca="1" si="13">IF(AND($C16="Goal",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),1,""))</f>
+        <f t="shared" ref="S16:T16" ca="1" si="15">IF(AND($C16="Goal",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
       <c r="T16" s="38" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="U16" s="38" t="str">
@@ -4931,168 +4946,168 @@
         <f ca="1">IF(AND($C16="Goal",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),2,IF(AND($C16="Milestone",W$5&gt;=$F16,W$5&lt;=$F16+$G16-1),1,""))</f>
         <v/>
       </c>
-      <c r="X16" s="65" t="str">
-        <f ca="1">IF(AND($C18="Goal",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),1,""))</f>
+      <c r="X16" s="54" t="str">
+        <f t="shared" ref="X16:BL16" ca="1" si="16">IF(AND($C18="Goal",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",X$5&gt;=$F18,X$5&lt;=$F18+$G18-1),1,""))</f>
         <v/>
       </c>
       <c r="Y16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Y$5&gt;=$F18,Y$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="Z16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",Z$5&gt;=$F18,Z$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AA16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AA$5&gt;=$F18,AA$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AB16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AB$5&gt;=$F18,AB$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AC16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AC$5&gt;=$F18,AC$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AD16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AD$5&gt;=$F18,AD$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AE16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AE$5&gt;=$F18,AE$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AF16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AF$5&gt;=$F18,AF$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AG16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AG$5&gt;=$F18,AG$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AH16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AH$5&gt;=$F18,AH$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AI16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AI$5&gt;=$F18,AI$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AJ16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AJ$5&gt;=$F18,AJ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AK16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AK$5&gt;=$F18,AK$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AL16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AL$5&gt;=$F18,AL$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AM16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AM$5&gt;=$F18,AM$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AN16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AN$5&gt;=$F18,AN$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AO16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AO$5&gt;=$F18,AO$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AP16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AP$5&gt;=$F18,AP$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AQ16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AQ$5&gt;=$F18,AQ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AR16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AR$5&gt;=$F18,AR$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AS16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AS$5&gt;=$F18,AS$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AT16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AT$5&gt;=$F18,AT$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AU16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AU$5&gt;=$F18,AU$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AV16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AV$5&gt;=$F18,AV$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AW16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AW$5&gt;=$F18,AW$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AX16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AX$5&gt;=$F18,AX$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AY16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AY$5&gt;=$F18,AY$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="AZ16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",AZ$5&gt;=$F18,AZ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BA16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BA$5&gt;=$F18,BA$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BB16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BB$5&gt;=$F18,BB$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BC16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BC$5&gt;=$F18,BC$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BD16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BD$5&gt;=$F18,BD$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BE16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BE$5&gt;=$F18,BE$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BF16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BF$5&gt;=$F18,BF$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BG16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BG$5&gt;=$F18,BG$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BH16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BH$5&gt;=$F18,BH$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BI16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BI$5&gt;=$F18,BI$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BJ16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BJ$5&gt;=$F18,BJ$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BK16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BK$5&gt;=$F18,BK$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="BL16" s="38" t="str">
-        <f ca="1">IF(AND($C18="Goal",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),2,IF(AND($C18="Milestone",BL$5&gt;=$F18,BL$5&lt;=$F18+$G18-1),1,""))</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
     </row>
@@ -5112,31 +5127,31 @@
       <c r="G17" s="33"/>
       <c r="H17" s="26"/>
       <c r="I17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",I$5&gt;=$F19,I$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="J17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",J$5&gt;=$F19,J$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",K$5&gt;=$F19,K$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="L17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",L$5&gt;=$F19,L$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="M17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",M$5&gt;=$F19,M$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="N17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",N$5&gt;=$F19,N$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="O17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",O$5&gt;=$F19,O$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="P17" s="38" t="str">
@@ -5172,167 +5187,167 @@
         <v/>
       </c>
       <c r="X17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ref="X17:BL17" ca="1" si="17">IF(AND($C19="Goal",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",X$5&gt;=$F19,X$5&lt;=$F19+$G19-1),1,""))</f>
         <v/>
       </c>
       <c r="Y17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Y$5&gt;=$F19,Y$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="Z17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",Z$5&gt;=$F19,Z$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AA17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AA$5&gt;=$F19,AA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AB17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AB$5&gt;=$F19,AB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AC17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AC$5&gt;=$F19,AC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AD17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AD$5&gt;=$F19,AD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AE17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AE$5&gt;=$F19,AE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AF17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AF$5&gt;=$F19,AF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AG17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AG$5&gt;=$F19,AG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AH17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AH$5&gt;=$F19,AH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AI17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AI$5&gt;=$F19,AI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AJ17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AJ$5&gt;=$F19,AJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AK17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AK$5&gt;=$F19,AK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AL17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AL$5&gt;=$F19,AL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AM17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AM$5&gt;=$F19,AM$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AN17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AN$5&gt;=$F19,AN$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AO17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AO$5&gt;=$F19,AO$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AP17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AP$5&gt;=$F19,AP$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AQ17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AQ$5&gt;=$F19,AQ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AR17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AR$5&gt;=$F19,AR$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AS17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AS$5&gt;=$F19,AS$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AT17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AT$5&gt;=$F19,AT$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AU17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AU$5&gt;=$F19,AU$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AV17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AV$5&gt;=$F19,AV$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AW17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AW$5&gt;=$F19,AW$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AX17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AX$5&gt;=$F19,AX$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AY17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AY$5&gt;=$F19,AY$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="AZ17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",AZ$5&gt;=$F19,AZ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BA17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BA$5&gt;=$F19,BA$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BB17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BB$5&gt;=$F19,BB$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BC17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BC$5&gt;=$F19,BC$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BD17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BD$5&gt;=$F19,BD$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BE17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BE$5&gt;=$F19,BE$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BF17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BF$5&gt;=$F19,BF$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BG17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BG$5&gt;=$F19,BG$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BH17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BH$5&gt;=$F19,BH$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BI17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BI$5&gt;=$F19,BI$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BJ17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BJ$5&gt;=$F19,BJ$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BK17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BK$5&gt;=$F19,BK$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="BL17" s="38" t="str">
-        <f ca="1">IF(AND($C19="Goal",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),2,IF(AND($C19="Milestone",BL$5&gt;=$F19,BL$5&lt;=$F19+$G19-1),1,""))</f>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
     </row>
@@ -5624,227 +5639,227 @@
       <c r="G22" s="33"/>
       <c r="H22" s="26"/>
       <c r="I22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ref="I22:AN22" ca="1" si="18">IF(AND($C24="Goal",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",I$5&gt;=$F24,I$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="J22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",J$5&gt;=$F24,J$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",K$5&gt;=$F24,K$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="L22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",L$5&gt;=$F24,L$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="M22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",M$5&gt;=$F24,M$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="N22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",N$5&gt;=$F24,N$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="O22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",O$5&gt;=$F24,O$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="P22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",P$5&gt;=$F24,P$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Q22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Q$5&gt;=$F24,Q$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="R22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",R$5&gt;=$F24,R$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="S22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",S$5&gt;=$F24,S$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="T22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",T$5&gt;=$F24,T$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="U22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",U$5&gt;=$F24,U$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="V22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",V$5&gt;=$F24,V$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="W22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",W$5&gt;=$F24,W$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="X22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",X$5&gt;=$F24,X$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Y22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Y$5&gt;=$F24,Y$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="Z22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",Z$5&gt;=$F24,Z$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AA22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AA$5&gt;=$F24,AA$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AB22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AB$5&gt;=$F24,AB$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AC22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AC$5&gt;=$F24,AC$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AD22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AD$5&gt;=$F24,AD$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AE22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AE$5&gt;=$F24,AE$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AF22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AF$5&gt;=$F24,AF$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AG22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AG$5&gt;=$F24,AG$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AH22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AH$5&gt;=$F24,AH$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AI22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AI$5&gt;=$F24,AI$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AJ22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AJ$5&gt;=$F24,AJ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AK22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AK$5&gt;=$F24,AK$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AL22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AL$5&gt;=$F24,AL$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AM22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AM$5&gt;=$F24,AM$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AN22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AN$5&gt;=$F24,AN$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="AO22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ref="AO22:BL22" ca="1" si="19">IF(AND($C24="Goal",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AO$5&gt;=$F24,AO$5&lt;=$F24+$G24-1),1,""))</f>
         <v/>
       </c>
       <c r="AP22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AP$5&gt;=$F24,AP$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AQ22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AQ$5&gt;=$F24,AQ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AR22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AR$5&gt;=$F24,AR$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AS22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AS$5&gt;=$F24,AS$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AT22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AT$5&gt;=$F24,AT$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AU22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AU$5&gt;=$F24,AU$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AV22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AV$5&gt;=$F24,AV$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AW22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AW$5&gt;=$F24,AW$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AX22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AX$5&gt;=$F24,AX$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AY22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AY$5&gt;=$F24,AY$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="AZ22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",AZ$5&gt;=$F24,AZ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BA22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BA$5&gt;=$F24,BA$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BB22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BB$5&gt;=$F24,BB$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BC22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BC$5&gt;=$F24,BC$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BD22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BD$5&gt;=$F24,BD$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BE22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BE$5&gt;=$F24,BE$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BF22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BF$5&gt;=$F24,BF$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BG22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BG$5&gt;=$F24,BG$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BH22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BH$5&gt;=$F24,BH$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BI22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BI$5&gt;=$F24,BI$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BJ22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BJ$5&gt;=$F24,BJ$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BK22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BK$5&gt;=$F24,BK$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="BL22" s="38" t="str">
-        <f ca="1">IF(AND($C24="Goal",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),2,IF(AND($C24="Milestone",BL$5&gt;=$F24,BL$5&lt;=$F24+$G24-1),1,""))</f>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
     </row>
@@ -5860,227 +5875,227 @@
       <c r="G23" s="33"/>
       <c r="H23" s="26"/>
       <c r="I23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="I23:AN23" ca="1" si="20">IF(AND($C25="Goal",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",I$5&gt;=$F25,I$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="J23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",J$5&gt;=$F25,J$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",K$5&gt;=$F25,K$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="L23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",L$5&gt;=$F25,L$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="M23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",M$5&gt;=$F25,M$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="N23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",N$5&gt;=$F25,N$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="O23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",O$5&gt;=$F25,O$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="P23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",P$5&gt;=$F25,P$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Q23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Q$5&gt;=$F25,Q$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="R23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",R$5&gt;=$F25,R$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="S23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",S$5&gt;=$F25,S$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="T23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",T$5&gt;=$F25,T$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="U23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",U$5&gt;=$F25,U$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="V23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",V$5&gt;=$F25,V$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="W23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",W$5&gt;=$F25,W$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="X23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",X$5&gt;=$F25,X$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Y23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Y$5&gt;=$F25,Y$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="Z23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",Z$5&gt;=$F25,Z$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AA23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AA$5&gt;=$F25,AA$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AB23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AB$5&gt;=$F25,AB$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AC23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AC$5&gt;=$F25,AC$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AD23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AD$5&gt;=$F25,AD$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AE23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AE$5&gt;=$F25,AE$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AF23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AF$5&gt;=$F25,AF$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AG23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AG$5&gt;=$F25,AG$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AH23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AH$5&gt;=$F25,AH$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AI23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AI$5&gt;=$F25,AI$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AJ23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AJ$5&gt;=$F25,AJ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AK23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AK$5&gt;=$F25,AK$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AL23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AL$5&gt;=$F25,AL$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AM23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AM$5&gt;=$F25,AM$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AN23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AN$5&gt;=$F25,AN$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="AO23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ref="AO23:BL23" ca="1" si="21">IF(AND($C25="Goal",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AO$5&gt;=$F25,AO$5&lt;=$F25+$G25-1),1,""))</f>
         <v/>
       </c>
       <c r="AP23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AP$5&gt;=$F25,AP$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AQ23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AQ$5&gt;=$F25,AQ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AR23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AR$5&gt;=$F25,AR$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AS23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AS$5&gt;=$F25,AS$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AT23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AT$5&gt;=$F25,AT$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AU23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AU$5&gt;=$F25,AU$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AV23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AV$5&gt;=$F25,AV$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AW23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AW$5&gt;=$F25,AW$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AX23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AX$5&gt;=$F25,AX$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AY23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AY$5&gt;=$F25,AY$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="AZ23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",AZ$5&gt;=$F25,AZ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BA23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BA$5&gt;=$F25,BA$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BB23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BB$5&gt;=$F25,BB$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BC23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BC$5&gt;=$F25,BC$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BD23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BD$5&gt;=$F25,BD$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BE23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BE$5&gt;=$F25,BE$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BF23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BF$5&gt;=$F25,BF$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BG23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BG$5&gt;=$F25,BG$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BH23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BH$5&gt;=$F25,BH$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BI23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BI$5&gt;=$F25,BI$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BJ23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BJ$5&gt;=$F25,BJ$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BK23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BK$5&gt;=$F25,BK$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="BL23" s="38" t="str">
-        <f ca="1">IF(AND($C25="Goal",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),2,IF(AND($C25="Milestone",BL$5&gt;=$F25,BL$5&lt;=$F25+$G25-1),1,""))</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
     </row>
@@ -6096,227 +6111,227 @@
       <c r="G24" s="33"/>
       <c r="H24" s="26"/>
       <c r="I24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="I24:AN24" ca="1" si="22">IF(AND($C26="Goal",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",I$5&gt;=$F26,I$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="J24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",J$5&gt;=$F26,J$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",K$5&gt;=$F26,K$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="L24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",L$5&gt;=$F26,L$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="M24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",M$5&gt;=$F26,M$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="N24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",N$5&gt;=$F26,N$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="O24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",O$5&gt;=$F26,O$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="P24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",P$5&gt;=$F26,P$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Q24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Q$5&gt;=$F26,Q$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="R24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",R$5&gt;=$F26,R$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="S24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",S$5&gt;=$F26,S$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="T24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",T$5&gt;=$F26,T$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="U24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",U$5&gt;=$F26,U$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="V24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",V$5&gt;=$F26,V$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="W24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",W$5&gt;=$F26,W$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="X24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",X$5&gt;=$F26,X$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Y24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Y$5&gt;=$F26,Y$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="Z24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",Z$5&gt;=$F26,Z$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AA24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AA$5&gt;=$F26,AA$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AB24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AB$5&gt;=$F26,AB$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AC24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AC$5&gt;=$F26,AC$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AD24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AD$5&gt;=$F26,AD$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AE24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AE$5&gt;=$F26,AE$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AF24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AF$5&gt;=$F26,AF$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AG24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AG$5&gt;=$F26,AG$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AH24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AH$5&gt;=$F26,AH$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AI24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AI$5&gt;=$F26,AI$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AJ24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AJ$5&gt;=$F26,AJ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AK24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AK$5&gt;=$F26,AK$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AL24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AL$5&gt;=$F26,AL$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AM24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AM$5&gt;=$F26,AM$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AN24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AN$5&gt;=$F26,AN$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="AO24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ref="AO24:BL24" ca="1" si="23">IF(AND($C26="Goal",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AO$5&gt;=$F26,AO$5&lt;=$F26+$G26-1),1,""))</f>
         <v/>
       </c>
       <c r="AP24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AP$5&gt;=$F26,AP$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AQ24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AQ$5&gt;=$F26,AQ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AR24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AR$5&gt;=$F26,AR$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AS24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AS$5&gt;=$F26,AS$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AT24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AT$5&gt;=$F26,AT$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AU24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AU$5&gt;=$F26,AU$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AV24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AV$5&gt;=$F26,AV$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AW24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AW$5&gt;=$F26,AW$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AX24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AX$5&gt;=$F26,AX$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AY24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AY$5&gt;=$F26,AY$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="AZ24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",AZ$5&gt;=$F26,AZ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BA24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BA$5&gt;=$F26,BA$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BB24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BB$5&gt;=$F26,BB$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BC24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BC$5&gt;=$F26,BC$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BD24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BD$5&gt;=$F26,BD$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BE24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BE$5&gt;=$F26,BE$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BF24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BF$5&gt;=$F26,BF$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BG24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BG$5&gt;=$F26,BG$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BH24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BH$5&gt;=$F26,BH$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BI24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BI$5&gt;=$F26,BI$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BJ24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BJ$5&gt;=$F26,BJ$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BK24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BK$5&gt;=$F26,BK$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="BL24" s="38" t="str">
-        <f ca="1">IF(AND($C26="Goal",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),2,IF(AND($C26="Milestone",BL$5&gt;=$F26,BL$5&lt;=$F26+$G26-1),1,""))</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
     </row>
@@ -6332,227 +6347,227 @@
       <c r="G25" s="33"/>
       <c r="H25" s="26"/>
       <c r="I25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ref="I25:AN25" ca="1" si="24">IF(AND($C27="Goal",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",I$5&gt;=$F27,I$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="J25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",J$5&gt;=$F27,J$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="K25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",K$5&gt;=$F27,K$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="L25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",L$5&gt;=$F27,L$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="M25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",M$5&gt;=$F27,M$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="N25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",N$5&gt;=$F27,N$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="O25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",O$5&gt;=$F27,O$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="P25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",P$5&gt;=$F27,P$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Q25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Q$5&gt;=$F27,Q$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="R25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",R$5&gt;=$F27,R$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="S25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",S$5&gt;=$F27,S$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="T25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",T$5&gt;=$F27,T$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="U25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",U$5&gt;=$F27,U$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="V25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",V$5&gt;=$F27,V$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="W25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",W$5&gt;=$F27,W$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="X25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",X$5&gt;=$F27,X$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Y25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Y$5&gt;=$F27,Y$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="Z25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",Z$5&gt;=$F27,Z$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AA25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AA$5&gt;=$F27,AA$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AB25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AB$5&gt;=$F27,AB$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AC25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AC$5&gt;=$F27,AC$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AD25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AD$5&gt;=$F27,AD$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AE25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AE$5&gt;=$F27,AE$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AF25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AF$5&gt;=$F27,AF$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AG25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AG$5&gt;=$F27,AG$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AH25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AH$5&gt;=$F27,AH$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AI25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AI$5&gt;=$F27,AI$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AJ25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AJ$5&gt;=$F27,AJ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AK25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AK$5&gt;=$F27,AK$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AL25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AL$5&gt;=$F27,AL$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AM25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AM$5&gt;=$F27,AM$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AN25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AN$5&gt;=$F27,AN$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="24"/>
         <v/>
       </c>
       <c r="AO25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ref="AO25:BL25" ca="1" si="25">IF(AND($C27="Goal",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AO$5&gt;=$F27,AO$5&lt;=$F27+$G27-1),1,""))</f>
         <v/>
       </c>
       <c r="AP25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AP$5&gt;=$F27,AP$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AQ25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AQ$5&gt;=$F27,AQ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AR25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AR$5&gt;=$F27,AR$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AS25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AS$5&gt;=$F27,AS$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AT25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AT$5&gt;=$F27,AT$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AU25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AU$5&gt;=$F27,AU$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AV25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AV$5&gt;=$F27,AV$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AW25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AW$5&gt;=$F27,AW$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AX25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AX$5&gt;=$F27,AX$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AY25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AY$5&gt;=$F27,AY$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="AZ25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",AZ$5&gt;=$F27,AZ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BA25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BA$5&gt;=$F27,BA$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BB25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BB$5&gt;=$F27,BB$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BC25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BC$5&gt;=$F27,BC$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BD25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BD$5&gt;=$F27,BD$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BE25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BE$5&gt;=$F27,BE$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BF25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BF$5&gt;=$F27,BF$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BG25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BG$5&gt;=$F27,BG$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BH25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BH$5&gt;=$F27,BH$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BI25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BI$5&gt;=$F27,BI$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BJ25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BJ$5&gt;=$F27,BJ$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BK25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BK$5&gt;=$F27,BK$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="BL25" s="38" t="str">
-        <f ca="1">IF(AND($C27="Goal",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),2,IF(AND($C27="Milestone",BL$5&gt;=$F27,BL$5&lt;=$F27+$G27-1),1,""))</f>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
     </row>
@@ -6568,227 +6583,227 @@
       <c r="G26" s="33"/>
       <c r="H26" s="26"/>
       <c r="I26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ref="I26:AN26" ca="1" si="26">IF(AND($C28="Goal",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",I$5&gt;=$F28,I$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="J26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",J$5&gt;=$F28,J$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="K26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",K$5&gt;=$F28,K$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="L26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",L$5&gt;=$F28,L$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="M26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",M$5&gt;=$F28,M$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="N26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",N$5&gt;=$F28,N$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="O26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",O$5&gt;=$F28,O$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="P26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",P$5&gt;=$F28,P$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Q26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Q$5&gt;=$F28,Q$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="R26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",R$5&gt;=$F28,R$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="S26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",S$5&gt;=$F28,S$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="T26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",T$5&gt;=$F28,T$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="U26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",U$5&gt;=$F28,U$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="V26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",V$5&gt;=$F28,V$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="W26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",W$5&gt;=$F28,W$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="X26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",X$5&gt;=$F28,X$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Y26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Y$5&gt;=$F28,Y$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="Z26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",Z$5&gt;=$F28,Z$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AA26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AA$5&gt;=$F28,AA$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AB26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AB$5&gt;=$F28,AB$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AC26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AC$5&gt;=$F28,AC$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AD26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AD$5&gt;=$F28,AD$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AE26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AE$5&gt;=$F28,AE$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AF26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AF$5&gt;=$F28,AF$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AG26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AG$5&gt;=$F28,AG$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AH26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AH$5&gt;=$F28,AH$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AI26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AI$5&gt;=$F28,AI$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AJ26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AJ$5&gt;=$F28,AJ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AK26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AK$5&gt;=$F28,AK$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AL26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AL$5&gt;=$F28,AL$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AM26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AM$5&gt;=$F28,AM$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AN26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AN$5&gt;=$F28,AN$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="26"/>
         <v/>
       </c>
       <c r="AO26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ref="AO26:BL26" ca="1" si="27">IF(AND($C28="Goal",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AO$5&gt;=$F28,AO$5&lt;=$F28+$G28-1),1,""))</f>
         <v/>
       </c>
       <c r="AP26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AP$5&gt;=$F28,AP$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AQ26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AQ$5&gt;=$F28,AQ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AR26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AR$5&gt;=$F28,AR$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AS26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AS$5&gt;=$F28,AS$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AT26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AT$5&gt;=$F28,AT$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AU26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AU$5&gt;=$F28,AU$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AV26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AV$5&gt;=$F28,AV$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AW26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AW$5&gt;=$F28,AW$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AX26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AX$5&gt;=$F28,AX$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AY26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AY$5&gt;=$F28,AY$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="AZ26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",AZ$5&gt;=$F28,AZ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BA26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BA$5&gt;=$F28,BA$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BB26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BB$5&gt;=$F28,BB$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BC26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BC$5&gt;=$F28,BC$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BD26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BD$5&gt;=$F28,BD$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BE26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BE$5&gt;=$F28,BE$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BF26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BF$5&gt;=$F28,BF$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BG26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BG$5&gt;=$F28,BG$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BH26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BH$5&gt;=$F28,BH$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BI26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BI$5&gt;=$F28,BI$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BJ26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BJ$5&gt;=$F28,BJ$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BK26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BK$5&gt;=$F28,BK$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="BL26" s="38" t="str">
-        <f ca="1">IF(AND($C28="Goal",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),2,IF(AND($C28="Milestone",BL$5&gt;=$F28,BL$5&lt;=$F28+$G28-1),1,""))</f>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
     </row>
@@ -6804,227 +6819,227 @@
       <c r="G27" s="33"/>
       <c r="H27" s="26"/>
       <c r="I27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ref="I27:AN27" ca="1" si="28">IF(AND($C29="Goal",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",I$5&gt;=$F29,I$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="J27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",J$5&gt;=$F29,J$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="K27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",K$5&gt;=$F29,K$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="L27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",L$5&gt;=$F29,L$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="M27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",M$5&gt;=$F29,M$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="N27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",N$5&gt;=$F29,N$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="O27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",O$5&gt;=$F29,O$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="P27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",P$5&gt;=$F29,P$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="Q27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Q$5&gt;=$F29,Q$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="R27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",R$5&gt;=$F29,R$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="S27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",S$5&gt;=$F29,S$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="T27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",T$5&gt;=$F29,T$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="U27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",U$5&gt;=$F29,U$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="V27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",V$5&gt;=$F29,V$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="W27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",W$5&gt;=$F29,W$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="X27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",X$5&gt;=$F29,X$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="Y27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Y$5&gt;=$F29,Y$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="Z27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",Z$5&gt;=$F29,Z$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AA27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AA$5&gt;=$F29,AA$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AB27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AB$5&gt;=$F29,AB$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AC27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AC$5&gt;=$F29,AC$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AD27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AD$5&gt;=$F29,AD$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AE27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AE$5&gt;=$F29,AE$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AF27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AF$5&gt;=$F29,AF$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AG27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AG$5&gt;=$F29,AG$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AH27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AH$5&gt;=$F29,AH$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AI27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AI$5&gt;=$F29,AI$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AJ27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AJ$5&gt;=$F29,AJ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AK27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AK$5&gt;=$F29,AK$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AL27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AL$5&gt;=$F29,AL$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AM27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AM$5&gt;=$F29,AM$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AN27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AN$5&gt;=$F29,AN$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="AO27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ref="AO27:BL27" ca="1" si="29">IF(AND($C29="Goal",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AO$5&gt;=$F29,AO$5&lt;=$F29+$G29-1),1,""))</f>
         <v/>
       </c>
       <c r="AP27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AP$5&gt;=$F29,AP$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AQ27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AQ$5&gt;=$F29,AQ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AR27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AR$5&gt;=$F29,AR$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AS27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AS$5&gt;=$F29,AS$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AT27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AT$5&gt;=$F29,AT$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AU27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AU$5&gt;=$F29,AU$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AV27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AV$5&gt;=$F29,AV$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AW27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AW$5&gt;=$F29,AW$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AX27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AX$5&gt;=$F29,AX$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AY27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AY$5&gt;=$F29,AY$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="AZ27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",AZ$5&gt;=$F29,AZ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BA27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BA$5&gt;=$F29,BA$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BB27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BB$5&gt;=$F29,BB$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BC27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BC$5&gt;=$F29,BC$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BD27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BD$5&gt;=$F29,BD$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BE27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BE$5&gt;=$F29,BE$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BF27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BF$5&gt;=$F29,BF$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BG27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BG$5&gt;=$F29,BG$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BH27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BH$5&gt;=$F29,BH$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BI27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BI$5&gt;=$F29,BI$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BJ27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BJ$5&gt;=$F29,BJ$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BK27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BK$5&gt;=$F29,BK$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
       <c r="BL27" s="38" t="str">
-        <f ca="1">IF(AND($C29="Goal",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),2,IF(AND($C29="Milestone",BL$5&gt;=$F29,BL$5&lt;=$F29+$G29-1),1,""))</f>
+        <f t="shared" ca="1" si="29"/>
         <v/>
       </c>
     </row>
@@ -7042,227 +7057,227 @@
       <c r="G28" s="33"/>
       <c r="H28" s="26"/>
       <c r="I28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="I28:AN28" ca="1" si="30">IF(AND($C30="Goal",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",I$5&gt;=$F30,I$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="J28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",J$5&gt;=$F30,J$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",K$5&gt;=$F30,K$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="L28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",L$5&gt;=$F30,L$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="M28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",M$5&gt;=$F30,M$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="N28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",N$5&gt;=$F30,N$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="O28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",O$5&gt;=$F30,O$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="P28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",P$5&gt;=$F30,P$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Q28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Q$5&gt;=$F30,Q$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="R28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",R$5&gt;=$F30,R$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="S28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",S$5&gt;=$F30,S$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="T28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",T$5&gt;=$F30,T$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="U28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",U$5&gt;=$F30,U$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="V28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",V$5&gt;=$F30,V$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="W28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",W$5&gt;=$F30,W$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="X28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",X$5&gt;=$F30,X$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Y28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Y$5&gt;=$F30,Y$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="Z28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",Z$5&gt;=$F30,Z$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AA28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AA$5&gt;=$F30,AA$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AB28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AB$5&gt;=$F30,AB$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AC28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AC$5&gt;=$F30,AC$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AD28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AD$5&gt;=$F30,AD$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AE28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AE$5&gt;=$F30,AE$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AF28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AF$5&gt;=$F30,AF$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AG28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AG$5&gt;=$F30,AG$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AH28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AH$5&gt;=$F30,AH$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AI28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AI$5&gt;=$F30,AI$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AJ28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AJ$5&gt;=$F30,AJ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AK28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AK$5&gt;=$F30,AK$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AL28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AL$5&gt;=$F30,AL$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AM28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AM$5&gt;=$F30,AM$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AN28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AN$5&gt;=$F30,AN$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="AO28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ref="AO28:BL28" ca="1" si="31">IF(AND($C30="Goal",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AO$5&gt;=$F30,AO$5&lt;=$F30+$G30-1),1,""))</f>
         <v/>
       </c>
       <c r="AP28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AP$5&gt;=$F30,AP$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AQ28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AQ$5&gt;=$F30,AQ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AR28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AR$5&gt;=$F30,AR$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AS28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AS$5&gt;=$F30,AS$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AT28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AT$5&gt;=$F30,AT$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AU28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AU$5&gt;=$F30,AU$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AV28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AV$5&gt;=$F30,AV$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AW28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AW$5&gt;=$F30,AW$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AX28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AX$5&gt;=$F30,AX$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AY28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AY$5&gt;=$F30,AY$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="AZ28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",AZ$5&gt;=$F30,AZ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BA28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BA$5&gt;=$F30,BA$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BB28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BB$5&gt;=$F30,BB$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BC28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BC$5&gt;=$F30,BC$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BD28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BD$5&gt;=$F30,BD$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BE28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BE$5&gt;=$F30,BE$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BF28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BF$5&gt;=$F30,BF$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BG28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BG$5&gt;=$F30,BG$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BH28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BH$5&gt;=$F30,BH$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BI28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BI$5&gt;=$F30,BI$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BJ28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BJ$5&gt;=$F30,BJ$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BK28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BK$5&gt;=$F30,BK$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="BL28" s="38" t="str">
-        <f ca="1">IF(AND($C30="Goal",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),2,IF(AND($C30="Milestone",BL$5&gt;=$F30,BL$5&lt;=$F30+$G30-1),1,""))</f>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
     </row>
@@ -7278,227 +7293,227 @@
       <c r="G29" s="33"/>
       <c r="H29" s="26"/>
       <c r="I29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ref="I29:AN29" ca="1" si="32">IF(AND($C31="Goal",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",I$5&gt;=$F31,I$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="J29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",J$5&gt;=$F31,J$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",K$5&gt;=$F31,K$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="L29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",L$5&gt;=$F31,L$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="M29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",M$5&gt;=$F31,M$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="N29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",N$5&gt;=$F31,N$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="O29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",O$5&gt;=$F31,O$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="P29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",P$5&gt;=$F31,P$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="Q29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Q$5&gt;=$F31,Q$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="R29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",R$5&gt;=$F31,R$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="S29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",S$5&gt;=$F31,S$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="T29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",T$5&gt;=$F31,T$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="U29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",U$5&gt;=$F31,U$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="V29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",V$5&gt;=$F31,V$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="W29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",W$5&gt;=$F31,W$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="X29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",X$5&gt;=$F31,X$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="Y29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Y$5&gt;=$F31,Y$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="Z29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",Z$5&gt;=$F31,Z$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AA29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AA$5&gt;=$F31,AA$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AB29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AB$5&gt;=$F31,AB$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AC29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AC$5&gt;=$F31,AC$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AD29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AD$5&gt;=$F31,AD$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AE29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AE$5&gt;=$F31,AE$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AF29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AF$5&gt;=$F31,AF$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AG29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AG$5&gt;=$F31,AG$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AH29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AH$5&gt;=$F31,AH$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AI29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AI$5&gt;=$F31,AI$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AJ29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AJ$5&gt;=$F31,AJ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AK29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AK$5&gt;=$F31,AK$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AL29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AL$5&gt;=$F31,AL$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AM29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AM$5&gt;=$F31,AM$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AN29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AN$5&gt;=$F31,AN$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="AO29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ref="AO29:BL29" ca="1" si="33">IF(AND($C31="Goal",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AO$5&gt;=$F31,AO$5&lt;=$F31+$G31-1),1,""))</f>
         <v/>
       </c>
       <c r="AP29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AP$5&gt;=$F31,AP$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AQ29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AQ$5&gt;=$F31,AQ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AR29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AR$5&gt;=$F31,AR$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AS29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AS$5&gt;=$F31,AS$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AT29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AT$5&gt;=$F31,AT$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AU29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AU$5&gt;=$F31,AU$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AV29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AV$5&gt;=$F31,AV$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AW29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AW$5&gt;=$F31,AW$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AX29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AX$5&gt;=$F31,AX$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AY29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AY$5&gt;=$F31,AY$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="AZ29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",AZ$5&gt;=$F31,AZ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BA29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BA$5&gt;=$F31,BA$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BB29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BB$5&gt;=$F31,BB$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BC29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BC$5&gt;=$F31,BC$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BD29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BD$5&gt;=$F31,BD$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BE29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BE$5&gt;=$F31,BE$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BF29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BF$5&gt;=$F31,BF$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BG29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BG$5&gt;=$F31,BG$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BH29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BH$5&gt;=$F31,BH$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BI29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BI$5&gt;=$F31,BI$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BJ29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BJ$5&gt;=$F31,BJ$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BK29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BK$5&gt;=$F31,BK$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
       <c r="BL29" s="38" t="str">
-        <f ca="1">IF(AND($C31="Goal",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),2,IF(AND($C31="Milestone",BL$5&gt;=$F31,BL$5&lt;=$F31+$G31-1),1,""))</f>
+        <f t="shared" ca="1" si="33"/>
         <v/>
       </c>
     </row>
@@ -7514,227 +7529,227 @@
       <c r="G30" s="33"/>
       <c r="H30" s="26"/>
       <c r="I30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="I30:AN30" ca="1" si="34">IF(AND($C32="Goal",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",I$5&gt;=$F32,I$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="J30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",J$5&gt;=$F32,J$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="K30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",K$5&gt;=$F32,K$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="L30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",L$5&gt;=$F32,L$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="M30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",M$5&gt;=$F32,M$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="N30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",N$5&gt;=$F32,N$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="O30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",O$5&gt;=$F32,O$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="P30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",P$5&gt;=$F32,P$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="Q30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Q$5&gt;=$F32,Q$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="R30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",R$5&gt;=$F32,R$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="S30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",S$5&gt;=$F32,S$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="T30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",T$5&gt;=$F32,T$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="U30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",U$5&gt;=$F32,U$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="V30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",V$5&gt;=$F32,V$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="W30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",W$5&gt;=$F32,W$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="X30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",X$5&gt;=$F32,X$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="Y30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Y$5&gt;=$F32,Y$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="Z30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",Z$5&gt;=$F32,Z$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AA30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AA$5&gt;=$F32,AA$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AB30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AB$5&gt;=$F32,AB$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AC30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AC$5&gt;=$F32,AC$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AD30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AD$5&gt;=$F32,AD$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AE30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AE$5&gt;=$F32,AE$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AF30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AF$5&gt;=$F32,AF$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AG30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AG$5&gt;=$F32,AG$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AH30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AH$5&gt;=$F32,AH$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AI30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AI$5&gt;=$F32,AI$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AJ30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AJ$5&gt;=$F32,AJ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AK30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AK$5&gt;=$F32,AK$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AL30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AL$5&gt;=$F32,AL$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AM30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AM$5&gt;=$F32,AM$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AN30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AN$5&gt;=$F32,AN$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="34"/>
         <v/>
       </c>
       <c r="AO30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ref="AO30:BL30" ca="1" si="35">IF(AND($C32="Goal",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AO$5&gt;=$F32,AO$5&lt;=$F32+$G32-1),1,""))</f>
         <v/>
       </c>
       <c r="AP30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AP$5&gt;=$F32,AP$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AQ30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AQ$5&gt;=$F32,AQ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AR30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AR$5&gt;=$F32,AR$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AS30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AS$5&gt;=$F32,AS$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AT30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AT$5&gt;=$F32,AT$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AU30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AU$5&gt;=$F32,AU$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AV30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AV$5&gt;=$F32,AV$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AW30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AW$5&gt;=$F32,AW$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AX30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AX$5&gt;=$F32,AX$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AY30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AY$5&gt;=$F32,AY$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="AZ30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",AZ$5&gt;=$F32,AZ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BA30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BA$5&gt;=$F32,BA$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BB30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BB$5&gt;=$F32,BB$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BC30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BC$5&gt;=$F32,BC$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BD30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BD$5&gt;=$F32,BD$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BE30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BE$5&gt;=$F32,BE$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BF30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BF$5&gt;=$F32,BF$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BG30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BG$5&gt;=$F32,BG$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BH30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BH$5&gt;=$F32,BH$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BI30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BI$5&gt;=$F32,BI$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BJ30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BJ$5&gt;=$F32,BJ$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BK30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BK$5&gt;=$F32,BK$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="BL30" s="38" t="str">
-        <f ca="1">IF(AND($C32="Goal",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),2,IF(AND($C32="Milestone",BL$5&gt;=$F32,BL$5&lt;=$F32+$G32-1),1,""))</f>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
     </row>
@@ -7750,227 +7765,227 @@
       <c r="G31" s="33"/>
       <c r="H31" s="26"/>
       <c r="I31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ref="I31:AN31" ca="1" si="36">IF(AND($C33="Goal",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",I$5&gt;=$F33,I$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="J31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",J$5&gt;=$F33,J$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",J$5&gt;=$F33,J$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="K31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",K$5&gt;=$F33,K$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",K$5&gt;=$F33,K$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="L31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",L$5&gt;=$F33,L$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",L$5&gt;=$F33,L$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="M31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",M$5&gt;=$F33,M$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",M$5&gt;=$F33,M$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="N31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",N$5&gt;=$F33,N$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",N$5&gt;=$F33,N$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="O31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",O$5&gt;=$F33,O$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",O$5&gt;=$F33,O$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="P31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",P$5&gt;=$F33,P$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",P$5&gt;=$F33,P$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Q31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",Q$5&gt;=$F33,Q$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Q$5&gt;=$F33,Q$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="R31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",R$5&gt;=$F33,R$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",R$5&gt;=$F33,R$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="S31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",S$5&gt;=$F33,S$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",S$5&gt;=$F33,S$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="T31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",T$5&gt;=$F33,T$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",T$5&gt;=$F33,T$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="U31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",U$5&gt;=$F33,U$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",U$5&gt;=$F33,U$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="V31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",V$5&gt;=$F33,V$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",V$5&gt;=$F33,V$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="W31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",W$5&gt;=$F33,W$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",W$5&gt;=$F33,W$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="X31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",X$5&gt;=$F33,X$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",X$5&gt;=$F33,X$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Y31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Y$5&gt;=$F33,Y$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="Z31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",Z$5&gt;=$F33,Z$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",Z$5&gt;=$F33,Z$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AA31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AA$5&gt;=$F33,AA$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AA$5&gt;=$F33,AA$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AB31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AB$5&gt;=$F33,AB$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AB$5&gt;=$F33,AB$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AC31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AC$5&gt;=$F33,AC$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AC$5&gt;=$F33,AC$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AD31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AD$5&gt;=$F33,AD$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AD$5&gt;=$F33,AD$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AE31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AE$5&gt;=$F33,AE$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AE$5&gt;=$F33,AE$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AF31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AF$5&gt;=$F33,AF$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AF$5&gt;=$F33,AF$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AG31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AG$5&gt;=$F33,AG$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AG$5&gt;=$F33,AG$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AH31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AH$5&gt;=$F33,AH$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AH$5&gt;=$F33,AH$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AI31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AI$5&gt;=$F33,AI$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AI$5&gt;=$F33,AI$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AJ31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AJ$5&gt;=$F33,AJ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AJ$5&gt;=$F33,AJ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AK31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AK$5&gt;=$F33,AK$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AK$5&gt;=$F33,AK$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AL31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AL$5&gt;=$F33,AL$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AL$5&gt;=$F33,AL$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AM31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AM$5&gt;=$F33,AM$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AM$5&gt;=$F33,AM$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AN31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AN$5&gt;=$F33,AN$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="36"/>
         <v/>
       </c>
       <c r="AO31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ref="AO31:BL31" ca="1" si="37">IF(AND($C33="Goal",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AO$5&gt;=$F33,AO$5&lt;=$F33+$G33-1),1,""))</f>
         <v/>
       </c>
       <c r="AP31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AP$5&gt;=$F33,AP$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AP$5&gt;=$F33,AP$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AQ31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AQ$5&gt;=$F33,AQ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AQ$5&gt;=$F33,AQ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AR31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AR$5&gt;=$F33,AR$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AR$5&gt;=$F33,AR$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AS31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AS$5&gt;=$F33,AS$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AS$5&gt;=$F33,AS$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AT31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AT$5&gt;=$F33,AT$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AT$5&gt;=$F33,AT$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AU31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AU$5&gt;=$F33,AU$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AU$5&gt;=$F33,AU$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AV31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AV$5&gt;=$F33,AV$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AV$5&gt;=$F33,AV$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AW31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AW$5&gt;=$F33,AW$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AW$5&gt;=$F33,AW$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AX31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AX$5&gt;=$F33,AX$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AX$5&gt;=$F33,AX$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AY31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AY$5&gt;=$F33,AY$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AY$5&gt;=$F33,AY$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="AZ31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",AZ$5&gt;=$F33,AZ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",AZ$5&gt;=$F33,AZ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BA31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BA$5&gt;=$F33,BA$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BA$5&gt;=$F33,BA$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BB31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BB$5&gt;=$F33,BB$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BB$5&gt;=$F33,BB$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BC31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BC$5&gt;=$F33,BC$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BC$5&gt;=$F33,BC$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BD31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BD$5&gt;=$F33,BD$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BD$5&gt;=$F33,BD$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BE31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BE$5&gt;=$F33,BE$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BE$5&gt;=$F33,BE$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BF31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BF$5&gt;=$F33,BF$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BF$5&gt;=$F33,BF$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BG31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BG$5&gt;=$F33,BG$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BG$5&gt;=$F33,BG$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BH31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BH$5&gt;=$F33,BH$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BH$5&gt;=$F33,BH$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BI31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BI$5&gt;=$F33,BI$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BI$5&gt;=$F33,BI$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BJ31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BJ$5&gt;=$F33,BJ$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BJ$5&gt;=$F33,BJ$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BK31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BK$5&gt;=$F33,BK$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BK$5&gt;=$F33,BK$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
       <c r="BL31" s="38" t="str">
-        <f ca="1">IF(AND($C33="Goal",BL$5&gt;=$F33,BL$5&lt;=$F33+$G33-1),2,IF(AND($C33="Milestone",BL$5&gt;=$F33,BL$5&lt;=$F33+$G33-1),1,""))</f>
+        <f t="shared" ca="1" si="37"/>
         <v/>
       </c>
     </row>
@@ -7988,227 +8003,227 @@
       <c r="G32" s="33"/>
       <c r="H32" s="26"/>
       <c r="I32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="I32:AN32" ca="1" si="38">IF(AND($C35="Goal",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="J32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",J$5&gt;=$F35,J$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="K32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",K$5&gt;=$F35,K$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",K$5&gt;=$F35,K$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="L32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",L$5&gt;=$F35,L$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",L$5&gt;=$F35,L$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="M32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",M$5&gt;=$F35,M$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",M$5&gt;=$F35,M$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="N32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",N$5&gt;=$F35,N$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",N$5&gt;=$F35,N$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="O32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",O$5&gt;=$F35,O$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",O$5&gt;=$F35,O$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="P32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",P$5&gt;=$F35,P$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",P$5&gt;=$F35,P$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="Q32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",Q$5&gt;=$F35,Q$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Q$5&gt;=$F35,Q$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="R32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",R$5&gt;=$F35,R$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",R$5&gt;=$F35,R$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="S32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",S$5&gt;=$F35,S$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",S$5&gt;=$F35,S$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="T32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",T$5&gt;=$F35,T$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="U32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",U$5&gt;=$F35,U$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",U$5&gt;=$F35,U$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="V32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",V$5&gt;=$F35,V$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",V$5&gt;=$F35,V$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="W32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",W$5&gt;=$F35,W$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",W$5&gt;=$F35,W$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="X32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",X$5&gt;=$F35,X$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",X$5&gt;=$F35,X$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="Y32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",Y$5&gt;=$F35,Y$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Y$5&gt;=$F35,Y$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="Z32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",Z$5&gt;=$F35,Z$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",Z$5&gt;=$F35,Z$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AA32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AA$5&gt;=$F35,AA$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AA$5&gt;=$F35,AA$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AB32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AB$5&gt;=$F35,AB$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AB$5&gt;=$F35,AB$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AC32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AC$5&gt;=$F35,AC$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AC$5&gt;=$F35,AC$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AD32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AD$5&gt;=$F35,AD$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AE32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AE$5&gt;=$F35,AE$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AE$5&gt;=$F35,AE$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AF32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AF$5&gt;=$F35,AF$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AF$5&gt;=$F35,AF$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AG32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AG$5&gt;=$F35,AG$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AG$5&gt;=$F35,AG$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AH32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AH$5&gt;=$F35,AH$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AH$5&gt;=$F35,AH$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AI32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AI$5&gt;=$F35,AI$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AI$5&gt;=$F35,AI$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AJ32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AJ$5&gt;=$F35,AJ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AJ$5&gt;=$F35,AJ$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AK32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AK$5&gt;=$F35,AK$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AK$5&gt;=$F35,AK$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AL32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AL$5&gt;=$F35,AL$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AL$5&gt;=$F35,AL$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AM32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AM$5&gt;=$F35,AM$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AM$5&gt;=$F35,AM$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AN32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AN$5&gt;=$F35,AN$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
       <c r="AO32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ref="AO32:BL32" ca="1" si="39">IF(AND($C35="Goal",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AO$5&gt;=$F35,AO$5&lt;=$F35+$G35-1),1,""))</f>
         <v/>
       </c>
       <c r="AP32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AP$5&gt;=$F35,AP$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AP$5&gt;=$F35,AP$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AQ32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AQ$5&gt;=$F35,AQ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AQ$5&gt;=$F35,AQ$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AR32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AR$5&gt;=$F35,AR$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AR$5&gt;=$F35,AR$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AS32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AS$5&gt;=$F35,AS$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AS$5&gt;=$F35,AS$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AT32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AT$5&gt;=$F35,AT$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AT$5&gt;=$F35,AT$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AU32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AU$5&gt;=$F35,AU$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AU$5&gt;=$F35,AU$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AV32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AV$5&gt;=$F35,AV$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AV$5&gt;=$F35,AV$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AW32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AW$5&gt;=$F35,AW$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AW$5&gt;=$F35,AW$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AX32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AX$5&gt;=$F35,AX$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AY32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AY$5&gt;=$F35,AY$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AY$5&gt;=$F35,AY$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="AZ32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",AZ$5&gt;=$F35,AZ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",AZ$5&gt;=$F35,AZ$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BA32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BA$5&gt;=$F35,BA$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BA$5&gt;=$F35,BA$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BB32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BB$5&gt;=$F35,BB$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BB$5&gt;=$F35,BB$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BC32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BC$5&gt;=$F35,BC$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BC$5&gt;=$F35,BC$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BD32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BD$5&gt;=$F35,BD$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BD$5&gt;=$F35,BD$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BE32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BE$5&gt;=$F35,BE$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BE$5&gt;=$F35,BE$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BF32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BF$5&gt;=$F35,BF$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BF$5&gt;=$F35,BF$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BG32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BG$5&gt;=$F35,BG$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BG$5&gt;=$F35,BG$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BH32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BH$5&gt;=$F35,BH$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BI32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BI$5&gt;=$F35,BI$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BI$5&gt;=$F35,BI$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BJ32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BJ$5&gt;=$F35,BJ$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BJ$5&gt;=$F35,BJ$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BK32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BK$5&gt;=$F35,BK$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BK$5&gt;=$F35,BK$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
       <c r="BL32" s="38" t="str">
-        <f ca="1">IF(AND($C35="Goal",BL$5&gt;=$F35,BL$5&lt;=$F35+$G35-1),2,IF(AND($C35="Milestone",BL$5&gt;=$F35,BL$5&lt;=$F35+$G35-1),1,""))</f>
+        <f t="shared" ca="1" si="39"/>
         <v/>
       </c>
     </row>
@@ -8285,7 +8300,7 @@
       <c r="B34" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F34" s="55">
         <v>43570</v>
       </c>
       <c r="H34" s="39"/>
@@ -8353,141 +8368,141 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL33">
-    <cfRule type="expression" dxfId="38" priority="32">
+    <cfRule type="expression" dxfId="41" priority="32">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:AM4">
-    <cfRule type="expression" dxfId="37" priority="38">
+    <cfRule type="expression" dxfId="40" priority="38">
       <formula>I$5&lt;=EOMONTH($I$5,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:BL4">
-    <cfRule type="expression" dxfId="36" priority="34">
+    <cfRule type="expression" dxfId="39" priority="34">
       <formula>AND(J$5&lt;=EOMONTH($I$5,2),J$5&gt;EOMONTH($I$5,0),J$5&gt;EOMONTH($I$5,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BL4">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="38" priority="33">
       <formula>AND(I$5&lt;=EOMONTH($I$5,1),I$5&gt;EOMONTH($I$5,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:BL14 P15:Q15 S15:W15">
-    <cfRule type="expression" dxfId="34" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="55" stopIfTrue="1">
       <formula>AND($C8="Low Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="74" stopIfTrue="1">
       <formula>AND($C8="High Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="92" stopIfTrue="1">
       <formula>AND($C8="On Track",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="93" stopIfTrue="1">
       <formula>AND($C8="Med Risk",I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="94" stopIfTrue="1">
       <formula>AND(LEN($C8)=0,I$5&gt;=$F8,I$5&lt;=$F8+$G8-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="29" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="102" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="103" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="104" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="105" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="106" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$5&gt;=#REF!,I$5&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL31">
-    <cfRule type="expression" dxfId="24" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="121" stopIfTrue="1">
       <formula>AND($C17="Low Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="122" stopIfTrue="1">
       <formula>AND($C17="High Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="123" stopIfTrue="1">
       <formula>AND($C17="On Track",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="124" stopIfTrue="1">
       <formula>AND($C17="Med Risk",I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="125" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$5&gt;=$F17,I$5&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="19" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="132" stopIfTrue="1">
       <formula>AND($C35="Low Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="133" stopIfTrue="1">
       <formula>AND($C35="High Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="134" stopIfTrue="1">
       <formula>AND($C35="On Track",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="135" stopIfTrue="1">
       <formula>AND($C35="Med Risk",I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="136" stopIfTrue="1">
       <formula>AND(LEN($C35)=0,I$5&gt;=$F35,I$5&lt;=$F35+$G35-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:W16">
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
       <formula>AND($C16="Low Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
       <formula>AND($C16="High Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="14" stopIfTrue="1">
       <formula>AND($C16="On Track",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>AND($C16="Med Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
       <formula>AND(LEN($C16)=0,S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:W16">
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
       <formula>AND($C16="Low Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
       <formula>AND($C16="High Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
       <formula>AND($C16="On Track",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>AND($C16="Med Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C16)=0,S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16:T16">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>AND($C16="Low Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>AND($C16="High Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>AND($C16="On Track",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>AND($C16="Med Risk",S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>AND(LEN($C16)=0,S$5&gt;=$F16,S$5&lt;=$F16+$G16-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8574,6 +8589,21 @@
           <xm:sqref>E7:E17 E35:E36 E19:E33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C3BFB00C-D7BC-44DE-B114-4500D8A1BEFC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="101" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -8611,21 +8641,6 @@
           </x14:cfRule>
           <xm:sqref>I8:BL32</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C3BFB00C-D7BC-44DE-B114-4500D8A1BEFC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E18</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
